--- a/src/test/resources/TestData/InputData_Users.xlsx
+++ b/src/test/resources/TestData/InputData_Users.xlsx
@@ -3,27 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{163ECC21-AE79-4EB2-B8F2-8637F2898686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{709E10E2-0C6D-4991-98E3-93A839CE60FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17304" windowHeight="12372" xr2:uid="{C6FDCADB-182C-446E-8512-FF2F915DDD3D}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17328" windowHeight="13224" xr2:uid="{C6FDCADB-182C-446E-8512-FF2F915DDD3D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Authorization" sheetId="1" r:id="rId1"/>
+    <sheet name="Users_Authorization" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -466,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E5D993-1318-44A6-B297-253F91D40622}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/TestData/InputData_Users.xlsx
+++ b/src/test/resources/TestData/InputData_Users.xlsx
@@ -3,15 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{709E10E2-0C6D-4991-98E3-93A839CE60FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{291B9862-FDC4-40EC-84A1-B437D28B6CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17328" windowHeight="13224" xr2:uid="{C6FDCADB-182C-446E-8512-FF2F915DDD3D}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17376" windowHeight="13224" activeTab="3" xr2:uid="{C6FDCADB-182C-446E-8512-FF2F915DDD3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Authorization" sheetId="1" r:id="rId1"/>
+    <sheet name="InputData_User_GET" sheetId="2" r:id="rId2"/>
+    <sheet name="InputData_Users_POST" sheetId="3" r:id="rId3"/>
+    <sheet name="InputData_Users_DELETE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:P5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
   <si>
     <t>To Check Authorization with valid username and password</t>
   </si>
@@ -63,13 +66,181 @@
   </si>
   <si>
     <t>Unauthorized Access</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Users_ID</t>
+  </si>
+  <si>
+    <t>GET method for Valid UsersID</t>
+  </si>
+  <si>
+    <t>U01</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>GET method for non existing UserID</t>
+  </si>
+  <si>
+    <t>U2021</t>
+  </si>
+  <si>
+    <t>User Not Found</t>
+  </si>
+  <si>
+    <t>GET method for invalid UserID</t>
+  </si>
+  <si>
+    <t>ABC01</t>
+  </si>
+  <si>
+    <t>GET method for  UsersID with special character</t>
+  </si>
+  <si>
+    <t>US@03</t>
+  </si>
+  <si>
+    <t>GET method for  UsersID with decimal</t>
+  </si>
+  <si>
+    <t>GET method for  UsersID as blank</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>time_zone</t>
+  </si>
+  <si>
+    <t>linkedin_url</t>
+  </si>
+  <si>
+    <t>education_ug</t>
+  </si>
+  <si>
+    <t>education_pg</t>
+  </si>
+  <si>
+    <t>visa_status</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Sam Dsouza</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/Sam Dsouza/</t>
+  </si>
+  <si>
+    <t>bsc</t>
+  </si>
+  <si>
+    <t>msc</t>
+  </si>
+  <si>
+    <t>H1B</t>
+  </si>
+  <si>
+    <t>today is a great day</t>
+  </si>
+  <si>
+    <t>Successfully Created</t>
+  </si>
+  <si>
+    <t>Failed to create - invalid data</t>
+  </si>
+  <si>
+    <t>h4-ead</t>
+  </si>
+  <si>
+    <t>www.linkedn.com</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Failed to create - missing either first or last names</t>
+  </si>
+  <si>
+    <t>Samantha Ben</t>
+  </si>
+  <si>
+    <t>New jersey</t>
+  </si>
+  <si>
+    <t>H4-EAD</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>Failed to update-missing mandatory fields</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>123rit</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>To delete an existing user id</t>
+  </si>
+  <si>
+    <t>User record successfully deleted</t>
+  </si>
+  <si>
+    <t>To delete where user id is invalid</t>
+  </si>
+  <si>
+    <t>U321</t>
+  </si>
+  <si>
+    <t>Failed to delete-user not found</t>
+  </si>
+  <si>
+    <t>To delete where user id is decimal</t>
+  </si>
+  <si>
+    <t>U4.3</t>
+  </si>
+  <si>
+    <t>To delete where user id has special character</t>
+  </si>
+  <si>
+    <t>U#01</t>
+  </si>
+  <si>
+    <t>To delete where user id is blank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +258,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,20 +308,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9643B2BD-F27D-43E6-9FB4-2BCDE806C99E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E5D993-1318-44A6-B297-253F91D40622}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -553,4 +741,424 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098C77B3-114A-4F69-8B1F-C591FE6D8C6E}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>404</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>404</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>404</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>108.8</v>
+      </c>
+      <c r="C6">
+        <v>404</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>404</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{9AA997EC-53F8-4EE0-B37E-AFD7E8B867C3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB14EC7-31C3-4DA8-B024-B0776F7243D4}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>8764532198</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2">
+        <v>201</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>45678934</v>
+      </c>
+      <c r="J3">
+        <v>400</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4">
+        <v>400</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5">
+        <v>400</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>345.789649</v>
+      </c>
+      <c r="J6">
+        <v>400</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>400</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8">
+        <v>400</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9">
+        <v>400</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>6785489390</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10">
+        <v>400</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11">
+        <v>400</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12">
+        <v>400</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FCB78B-9444-4B3D-8B47-723F4D1D04E1}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="6">
+        <v>200</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="6">
+        <v>404</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="6">
+        <v>404</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="6">
+        <v>404</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6">
+        <v>404</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData/InputData_Users.xlsx
+++ b/src/test/resources/TestData/InputData_Users.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{291B9862-FDC4-40EC-84A1-B437D28B6CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{83205F7D-090D-459D-A2C2-F775B3EE6EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17376" windowHeight="13224" activeTab="3" xr2:uid="{C6FDCADB-182C-446E-8512-FF2F915DDD3D}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17400" windowHeight="13224" activeTab="1" xr2:uid="{C6FDCADB-182C-446E-8512-FF2F915DDD3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Authorization" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="InputData_Users_DELETE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P5"/>
+  <oleSize ref="A1:P24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>To Check Authorization with valid username and password</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>U01</t>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
   <si>
     <t>GET method for non existing UserID</t>
@@ -747,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098C77B3-114A-4F69-8B1F-C591FE6D8C6E}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,55 +774,52 @@
       <c r="C2">
         <v>200</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
       </c>
       <c r="C3">
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
       </c>
       <c r="C4">
         <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C5">
         <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>108.8</v>
@@ -834,18 +828,18 @@
         <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>404</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -868,31 +862,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -903,37 +897,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>8764532198</v>
       </c>
       <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
       </c>
       <c r="J2">
         <v>201</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -944,29 +938,29 @@
         <v>400</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4">
         <v>400</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <v>400</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -977,7 +971,7 @@
         <v>400</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -985,83 +979,83 @@
         <v>400</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>400</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9">
         <v>400</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>6785489390</v>
       </c>
       <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>53</v>
-      </c>
-      <c r="I10" t="s">
-        <v>54</v>
       </c>
       <c r="J10">
         <v>400</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11">
         <v>400</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12">
         <v>400</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FCB78B-9444-4B3D-8B47-723F4D1D04E1}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
@@ -1084,7 +1078,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>11</v>
@@ -1095,67 +1089,67 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="6">
         <v>200</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="C3" s="6">
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="C4" s="6">
         <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
         <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
       </c>
       <c r="C5" s="6">
         <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6">
         <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/InputData_Users.xlsx
+++ b/src/test/resources/TestData/InputData_Users.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{83205F7D-090D-459D-A2C2-F775B3EE6EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\eclipse-workspace\LMS_API_HACKATHON2122\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6AEA31-C2A0-4E14-9DF8-B3B8D6B1CFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17400" windowHeight="13224" activeTab="1" xr2:uid="{C6FDCADB-182C-446E-8512-FF2F915DDD3D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C6FDCADB-182C-446E-8512-FF2F915DDD3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Authorization" sheetId="1" r:id="rId1"/>
     <sheet name="InputData_User_GET" sheetId="2" r:id="rId2"/>
     <sheet name="InputData_Users_POST" sheetId="3" r:id="rId3"/>
-    <sheet name="InputData_Users_DELETE" sheetId="4" r:id="rId4"/>
+    <sheet name="InputData_Users_PUT" sheetId="5" r:id="rId4"/>
+    <sheet name="InputData_Users_DELETE" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
   <si>
     <t>To Check Authorization with valid username and password</t>
   </si>
@@ -228,6 +233,69 @@
   </si>
   <si>
     <t>To delete where user id is blank</t>
+  </si>
+  <si>
+    <t>Update the record with valid data</t>
+  </si>
+  <si>
+    <t>Dave,William</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>PST</t>
+  </si>
+  <si>
+    <t>Bachelor of Technology</t>
+  </si>
+  <si>
+    <t>Master of Technology</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>Only first or last name provided</t>
+  </si>
+  <si>
+    <t>Failed to update-missing either first or last names</t>
+  </si>
+  <si>
+    <t>If any of the fields in POST request is missing in the request JSON (as per requirement document) - name, phone_number, location, time_zone, linkedin_url, education_ug, education_pg, visa_status, comments</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - name, phone_number, location, time_zone, visa_status</t>
+  </si>
+  <si>
+    <t>Failed to update-missing mandatory data-name, phone number, location, time zone or visa status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If url given for linkedin_url field does not contain "https://www.linkedin.com/" </t>
+  </si>
+  <si>
+    <t>Failed to update-invalid data</t>
+  </si>
+  <si>
+    <t>If time zone given for time_zone field is anything other than - ['PST', 'MST', 'CST', 'EST', 'IST']</t>
+  </si>
+  <si>
+    <t>If visa status given for visa_status field is anything other than - ['Not-Specified', 'NA', 'GC-EAD', 'H4-EAD', 'H4', 'H1B', 'Canada-EAD', 'Indian-Citizen', 'US-Citizen', 'Canada-Citizen']</t>
+  </si>
+  <si>
+    <t>If name is aphanumeric</t>
+  </si>
+  <si>
+    <t>If phone number is less than 10 digits</t>
+  </si>
+  <si>
+    <t>User_id</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/DaveWilliam</t>
   </si>
 </sst>
 </file>
@@ -237,7 +305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +330,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,7 +384,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -323,6 +397,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -646,14 +735,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.21875" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -670,7 +759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -681,7 +770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -698,7 +787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -715,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,13 +833,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098C77B3-114A-4F69-8B1F-C591FE6D8C6E}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -764,7 +859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -775,7 +870,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -789,7 +884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -803,7 +898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -817,7 +912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -831,7 +926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -855,12 +950,24 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K12"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -895,7 +1002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -930,7 +1037,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>45678934</v>
       </c>
@@ -941,7 +1048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
         <v>46</v>
       </c>
@@ -952,7 +1059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>47</v>
       </c>
@@ -963,7 +1070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>345.789649</v>
       </c>
@@ -974,7 +1081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J7">
         <v>400</v>
       </c>
@@ -982,7 +1089,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>48</v>
       </c>
@@ -993,7 +1100,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1004,7 +1111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1036,7 +1143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>55</v>
       </c>
@@ -1047,7 +1154,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1064,6 +1171,286 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4264891A-14B8-42C5-A8D9-8A48CC2CB639}">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="33.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="10">
+        <v>4569213584</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="9">
+        <v>200</v>
+      </c>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5">
+        <v>400</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5">
+        <v>400</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5">
+        <v>400</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
+        <v>400</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
+        <v>400</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
+        <v>400</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
+        <v>400</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
+        <v>400</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{CB27A5D2-10BB-46F3-8D64-9BDE026C492B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FCB78B-9444-4B3D-8B47-723F4D1D04E1}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1071,9 +1458,9 @@
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1087,7 +1474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1098,7 +1485,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1112,7 +1499,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1126,7 +1513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1140,7 +1527,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>

--- a/src/test/resources/TestData/InputData_Users.xlsx
+++ b/src/test/resources/TestData/InputData_Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\eclipse-workspace\LMS_API_HACKATHON2122\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6AEA31-C2A0-4E14-9DF8-B3B8D6B1CFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E375CAE8-37DA-490C-BFD2-5681343FF428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C6FDCADB-182C-446E-8512-FF2F915DDD3D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
   <si>
     <t>To Check Authorization with valid username and password</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Master of Technology</t>
   </si>
   <si>
-    <t>H1</t>
-  </si>
-  <si>
     <t>Awesome</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
   </si>
   <si>
     <t>If phone number is less than 10 digits</t>
-  </si>
-  <si>
-    <t>User_id</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/DaveWilliam</t>
@@ -1175,7 +1169,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1193,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>27</v>
@@ -1255,7 +1249,7 @@
         <v>71</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>72</v>
@@ -1264,19 +1258,19 @@
         <v>73</v>
       </c>
       <c r="J2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="L2" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1292,12 +1286,12 @@
         <v>400</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1318,7 +1312,7 @@
     </row>
     <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1334,12 +1328,12 @@
         <v>400</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1355,12 +1349,12 @@
         <v>400</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1376,12 +1370,12 @@
         <v>400</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1397,12 +1391,12 @@
         <v>400</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1418,12 +1412,12 @@
         <v>400</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1439,7 +1433,7 @@
         <v>400</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/InputData_Users.xlsx
+++ b/src/test/resources/TestData/InputData_Users.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{193750AA-7FCE-4D27-AE5E-90BCD076E1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="19836" windowHeight="11220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Authorization" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,8 @@
     <sheet name="Text_POST" sheetId="14" r:id="rId14"/>
     <sheet name="InputData_Users_PUT" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A14:F24"/>
 </workbook>
 </file>
 
@@ -567,15 +569,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,144 +658,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,194 +672,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1020,252 +696,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1284,18 +721,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1306,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1316,63 +753,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1630,26 +1025,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.2190476190476" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.66666666666667" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.2190476190476" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="47.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="30.75" spans="1:5">
+    <row r="2" spans="1:5" ht="28.8">
       <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
@@ -1677,7 +1072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="30.75" spans="1:5">
+    <row r="3" spans="1:5" ht="28.8">
       <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
@@ -1694,7 +1089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="30.75" spans="1:5">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
@@ -1711,7 +1106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="30.75" spans="1:4">
+    <row r="5" spans="1:5" ht="28.8">
       <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
@@ -1727,31 +1122,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="2xx@Success"/>
-    <hyperlink ref="C4" r:id="rId2" display="New@2022"/>
-    <hyperlink ref="C5" r:id="rId1" display="2xx@Success"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="13" max="13" width="35.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="35.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -1790,7 +1183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="105" spans="1:13">
+    <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -1827,28 +1220,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
+    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="13" max="13" width="31.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="31.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -1887,7 +1278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="105" spans="1:13">
+    <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -1924,29 +1315,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
+    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -1985,7 +1374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="45" spans="1:13">
+    <row r="2" spans="1:13" ht="43.2">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -2022,28 +1411,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
+    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="13" max="13" width="27.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -2065,7 +1452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="105" spans="1:13">
+    <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -2079,30 +1466,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -2143,7 +1528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="75" spans="1:13">
+    <row r="2" spans="1:13" ht="72">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -2183,28 +1568,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
+    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="11.7142857142857"/>
+    <col min="4" max="4" width="11.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30" spans="1:13">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.8">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -2245,7 +1628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="68" customHeight="1" spans="1:13">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="67.95" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>159</v>
       </c>
@@ -2284,7 +1667,7 @@
       </c>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="105" spans="1:13">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="100.8">
       <c r="A3" s="9" t="s">
         <v>166</v>
       </c>
@@ -2305,7 +1688,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="409.5" spans="1:13">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="403.2">
       <c r="A4" s="9" t="s">
         <v>168</v>
       </c>
@@ -2326,7 +1709,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="330" spans="1:13">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="288">
       <c r="A5" s="9" t="s">
         <v>170</v>
       </c>
@@ -2347,7 +1730,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="150" spans="1:13">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="150">
       <c r="A6" s="9" t="s">
         <v>172</v>
       </c>
@@ -2368,7 +1751,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="195" spans="1:13">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="195">
       <c r="A7" s="9" t="s">
         <v>174</v>
       </c>
@@ -2389,7 +1772,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="345" spans="1:13">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="345">
       <c r="A8" s="9" t="s">
         <v>175</v>
       </c>
@@ -2410,7 +1793,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="60" spans="1:13">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="60">
       <c r="A9" s="9" t="s">
         <v>176</v>
       </c>
@@ -2431,7 +1814,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="75" spans="1:13">
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="75">
       <c r="A10" s="9" t="s">
         <v>177</v>
       </c>
@@ -2454,23 +1837,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/DaveWilliam"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -2486,7 +1871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2566,40 +1951,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="US@03"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="53.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="17.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="53.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="24.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="39.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="16.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="17.2857142857143" customWidth="1"/>
-    <col min="10" max="10" width="12.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="24.2857142857143" customWidth="1"/>
-    <col min="12" max="12" width="10.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="31.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:13">
+    <row r="1" spans="1:14" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -2636,11 +2019,11 @@
       <c r="L1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
@@ -2681,7 +2064,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" ht="45" spans="1:13">
+    <row r="3" spans="1:14" ht="43.2">
       <c r="A3" s="17" t="s">
         <v>49</v>
       </c>
@@ -2716,7 +2099,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" ht="45" spans="1:13">
+    <row r="4" spans="1:14" ht="43.2">
       <c r="A4" s="17" t="s">
         <v>56</v>
       </c>
@@ -2751,7 +2134,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" ht="45" spans="1:13">
+    <row r="5" spans="1:14" ht="43.2">
       <c r="A5" s="17" t="s">
         <v>64</v>
       </c>
@@ -2786,7 +2169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" ht="45" spans="1:13">
+    <row r="6" spans="1:14" ht="43.2">
       <c r="A6" s="17" t="s">
         <v>65</v>
       </c>
@@ -2944,7 +2327,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" ht="52" customHeight="1" spans="1:13">
+    <row r="10" spans="1:14" ht="52.05" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>76</v>
       </c>
@@ -3023,7 +2406,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="1:13">
+    <row r="12" spans="1:14" ht="28.8">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -3061,7 +2444,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" ht="30" spans="1:13">
+    <row r="13" spans="1:14" ht="28.8">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -3099,7 +2482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="1:13">
+    <row r="14" spans="1:14" ht="28.8">
       <c r="A14" s="19" t="s">
         <v>91</v>
       </c>
@@ -3132,7 +2515,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -3173,7 +2556,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -3211,7 +2594,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -3249,7 +2632,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -3284,7 +2667,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -3445,7 +2828,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="20" t="s">
         <v>121</v>
       </c>
@@ -3483,7 +2866,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" ht="45" spans="1:13">
+    <row r="24" spans="1:14" ht="43.2">
       <c r="A24" s="15" t="s">
         <v>124</v>
       </c>
@@ -3515,7 +2898,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" ht="45" spans="1:13">
+    <row r="25" spans="1:14" ht="43.2">
       <c r="A25" s="15" t="s">
         <v>126</v>
       </c>
@@ -3547,7 +2930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" ht="30" spans="1:14">
+    <row r="26" spans="1:14">
       <c r="A26" s="15" t="s">
         <v>129</v>
       </c>
@@ -3591,7 +2974,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" ht="30" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" s="15" t="s">
         <v>133</v>
       </c>
@@ -3678,47 +3061,45 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://www.linkedin.com/in/" tooltip="https://www.linkedin.com/in/"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
-    <hyperlink ref="G4" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
-    <hyperlink ref="G5" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
-    <hyperlink ref="G6" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
-    <hyperlink ref="G8" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
-    <hyperlink ref="G9" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
-    <hyperlink ref="G10" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
-    <hyperlink ref="G11" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
-    <hyperlink ref="G12" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
-    <hyperlink ref="G13" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
-    <hyperlink ref="G15" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
-    <hyperlink ref="G16" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
-    <hyperlink ref="G17" r:id="rId4" display="https://www.google.com/"/>
-    <hyperlink ref="G18" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
-    <hyperlink ref="G19" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
-    <hyperlink ref="G20" r:id="rId2" display="https://linkedin.com/in/apple bees/" tooltip="https://linkedin.com/in/apple bees/"/>
-    <hyperlink ref="G21" r:id="rId2" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
-    <hyperlink ref="G22" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
-    <hyperlink ref="G23" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
-    <hyperlink ref="G24" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
-    <hyperlink ref="G25" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
-    <hyperlink ref="G26" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
-    <hyperlink ref="G27" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
-    <hyperlink ref="G28" r:id="rId2" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
+    <hyperlink ref="G3" r:id="rId1" tooltip="https://www.linkedin.com/in/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="G8" r:id="rId6" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="G9" r:id="rId7" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="G10" r:id="rId8" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="G11" r:id="rId9" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="G12" r:id="rId10" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="G13" r:id="rId11" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="G15" r:id="rId12" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="G16" r:id="rId13" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="G17" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="G18" r:id="rId15" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="G19" r:id="rId16" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="G20" r:id="rId17" tooltip="https://linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="G21" r:id="rId18" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="G22" r:id="rId19" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="G23" r:id="rId20" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="G24" r:id="rId21" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="G25" r:id="rId22" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="G26" r:id="rId23" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="G27" r:id="rId24" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="G28" r:id="rId25" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D6"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3801,36 +3182,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="14" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -3868,7 +3247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:13">
+    <row r="2" spans="1:13" ht="28.8">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -3905,38 +3284,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
+    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -3975,7 +3352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="79" customHeight="1" spans="1:13">
+    <row r="2" spans="1:13" ht="79.05" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -4012,37 +3389,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
+    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="27.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="17.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="24" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="34.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="42.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="42.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -4081,7 +3456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="105" spans="1:13">
+    <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -4118,28 +3493,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
+    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="13" max="13" width="30.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="30.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -4178,7 +3551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="105" spans="1:13">
+    <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -4216,34 +3589,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="22.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5714285714286" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.2857142857143" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.8571428571429" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -4282,7 +3653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="105" spans="1:13">
+    <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -4319,9 +3690,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
+    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/InputData_Users.xlsx
+++ b/src/test/resources/TestData/InputData_Users.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{193750AA-7FCE-4D27-AE5E-90BCD076E1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="19836" windowHeight="11220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="13440" windowHeight="5055" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Authorization" sheetId="1" r:id="rId1"/>
@@ -21,16 +20,15 @@
     <sheet name="visa_status_POST" sheetId="11" r:id="rId11"/>
     <sheet name="comments_POST" sheetId="12" r:id="rId12"/>
     <sheet name="Invalid_Content" sheetId="13" r:id="rId13"/>
-    <sheet name="Text_POST" sheetId="14" r:id="rId14"/>
-    <sheet name="InputData_Users_PUT" sheetId="15" r:id="rId15"/>
+    <sheet name="InputData_Users_PUT" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
   <oleSize ref="A14:F24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="174">
   <si>
     <t>SCENARIO</t>
   </si>
@@ -495,18 +493,6 @@
   </si>
   <si>
     <t>Connecticut</t>
-  </si>
-  <si>
-    <t>bvis</t>
-  </si>
-  <si>
-    <t>mvis</t>
-  </si>
-  <si>
-    <t>details of a user</t>
-  </si>
-  <si>
-    <t>Failed to create-missing mandatory fields</t>
   </si>
   <si>
     <t>Update the record with valid data</t>
@@ -569,11 +555,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,13 +580,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -605,22 +588,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -658,8 +625,144 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,8 +775,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -696,44 +985,283 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -743,31 +1271,73 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1025,26 +1595,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="47.2190476190476" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.66666666666667" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.2190476190476" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="15.75" spans="1:5">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8">
+    <row r="2" ht="30.75" spans="1:5">
       <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
@@ -1072,7 +1642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8">
+    <row r="3" ht="30.75" spans="1:5">
       <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
@@ -1089,7 +1659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8">
+    <row r="4" ht="30.75" spans="1:5">
       <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
@@ -1106,7 +1676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8">
+    <row r="5" ht="30.75" spans="1:4">
       <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
@@ -1122,29 +1692,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId1" display="2xx@Success"/>
+    <hyperlink ref="C4" r:id="rId2" display="New@2022"/>
+    <hyperlink ref="C5" r:id="rId1" display="2xx@Success"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="13" max="13" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="35.3333333333333" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
+    <row r="1" s="10" customFormat="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -1183,7 +1755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="86.4">
+    <row r="2" ht="105" spans="1:13">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -1220,26 +1792,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="13" max="13" width="31.109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="31.1047619047619" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
+    <row r="1" s="10" customFormat="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -1278,7 +1852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="86.4">
+    <row r="2" ht="105" spans="1:13">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -1315,27 +1889,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.8857142857143" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.4380952380952" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
+    <row r="1" s="10" customFormat="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -1374,7 +1950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="43.2">
+    <row r="2" ht="45" spans="1:13">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -1411,26 +1987,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="13" max="13" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.552380952381" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
+    <row r="1" s="10" customFormat="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -1452,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="86.4">
+    <row r="2" ht="105" spans="1:13">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -1466,128 +2044,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="72">
-      <c r="A2" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2">
-        <v>400</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="11.6640625"/>
+    <col min="4" max="4" width="11.6666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.8">
+    <row r="1" s="1" customFormat="1" ht="30" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1628,48 +2103,48 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="67.95" customHeight="1">
+    <row r="2" s="2" customFormat="1" ht="67.95" customHeight="1" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D2" s="7">
         <v>4569213584</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>46</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L2" s="5">
         <v>201</v>
       </c>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="100.8">
+    <row r="3" s="2" customFormat="1" ht="105" spans="1:13">
       <c r="A3" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1685,12 +2160,12 @@
         <v>400</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="403.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="409.5" spans="1:13">
       <c r="A4" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1706,12 +2181,12 @@
         <v>400</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="288">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="330" spans="1:13">
       <c r="A5" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1727,12 +2202,12 @@
         <v>400</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="150">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="150" spans="1:13">
       <c r="A6" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1748,12 +2223,12 @@
         <v>400</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="195">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="195" spans="1:13">
       <c r="A7" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1769,12 +2244,12 @@
         <v>400</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="345">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="360" spans="1:13">
       <c r="A8" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1790,12 +2265,12 @@
         <v>400</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="60">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="60" spans="1:13">
       <c r="A9" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1811,12 +2286,12 @@
         <v>400</v>
       </c>
       <c r="M9" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="75" spans="1:13">
+      <c r="A10" s="9" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="75">
-      <c r="A10" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1832,29 +2307,31 @@
         <v>400</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/DaveWilliam"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.1047619047619" customWidth="1"/>
+    <col min="2" max="2" width="8.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1871,7 +2348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1951,38 +2428,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId1" display="US@03"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="53.8857142857143" customWidth="1"/>
+    <col min="2" max="2" width="17.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.1047619047619" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
-    <col min="13" max="13" width="31.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.4380952380952" customWidth="1"/>
+    <col min="7" max="7" width="39.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="16.4380952380952" customWidth="1"/>
+    <col min="9" max="9" width="17.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="12.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="24.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="10.1047619047619" customWidth="1"/>
+    <col min="13" max="13" width="31.8857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1">
+    <row r="1" s="10" customFormat="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -2019,11 +2498,11 @@
       <c r="L1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
@@ -2064,7 +2543,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="43.2">
+    <row r="3" ht="45" spans="1:13">
       <c r="A3" s="17" t="s">
         <v>49</v>
       </c>
@@ -2099,7 +2578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="43.2">
+    <row r="4" ht="45" spans="1:13">
       <c r="A4" s="17" t="s">
         <v>56</v>
       </c>
@@ -2134,7 +2613,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="43.2">
+    <row r="5" ht="45" spans="1:13">
       <c r="A5" s="17" t="s">
         <v>64</v>
       </c>
@@ -2169,7 +2648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="43.2">
+    <row r="6" ht="45" spans="1:13">
       <c r="A6" s="17" t="s">
         <v>65</v>
       </c>
@@ -2327,7 +2806,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="52.05" customHeight="1">
+    <row r="10" ht="52.05" customHeight="1" spans="1:13">
       <c r="A10" s="17" t="s">
         <v>76</v>
       </c>
@@ -2406,7 +2885,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8">
+    <row r="12" ht="30" spans="1:13">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -2444,7 +2923,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="28.8">
+    <row r="13" ht="30" spans="1:13">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -2482,7 +2961,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.8">
+    <row r="14" ht="30" spans="1:13">
       <c r="A14" s="19" t="s">
         <v>91</v>
       </c>
@@ -2515,7 +2994,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -2556,7 +3035,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -2594,7 +3073,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -2632,7 +3111,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -2667,7 +3146,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -2828,7 +3307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:13">
       <c r="A23" s="20" t="s">
         <v>121</v>
       </c>
@@ -2866,7 +3345,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="43.2">
+    <row r="24" ht="45" spans="1:13">
       <c r="A24" s="15" t="s">
         <v>124</v>
       </c>
@@ -2898,7 +3377,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="43.2">
+    <row r="25" ht="45" spans="1:13">
       <c r="A25" s="15" t="s">
         <v>126</v>
       </c>
@@ -2930,7 +3409,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" ht="30" spans="1:14">
       <c r="A26" s="15" t="s">
         <v>129</v>
       </c>
@@ -2974,7 +3453,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" ht="30" spans="1:13">
       <c r="A27" s="15" t="s">
         <v>133</v>
       </c>
@@ -3061,45 +3540,47 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" tooltip="https://www.linkedin.com/in/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId4" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="G6" r:id="rId5" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="G8" r:id="rId6" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="G9" r:id="rId7" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="G10" r:id="rId8" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="G11" r:id="rId9" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="G12" r:id="rId10" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="G13" r:id="rId11" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="G15" r:id="rId12" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="G16" r:id="rId13" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="G17" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="G18" r:id="rId15" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="G19" r:id="rId16" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="G20" r:id="rId17" tooltip="https://linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="G21" r:id="rId18" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="G22" r:id="rId19" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="G23" r:id="rId20" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="G24" r:id="rId21" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="G25" r:id="rId22" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="G26" r:id="rId23" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="G27" r:id="rId24" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="G28" r:id="rId25" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://www.linkedin.com/in/" tooltip="https://www.linkedin.com/in/"/>
+    <hyperlink ref="G2" r:id="rId2" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
+    <hyperlink ref="G4" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G5" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G6" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G8" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G9" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G10" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G11" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G12" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G13" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G15" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G16" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G17" r:id="rId4" display="https://www.google.com/"/>
+    <hyperlink ref="G18" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G19" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G20" r:id="rId2" display="https://linkedin.com/in/apple bees/" tooltip="https://linkedin.com/in/apple bees/"/>
+    <hyperlink ref="G21" r:id="rId2" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
+    <hyperlink ref="G22" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G23" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G24" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G25" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G26" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G27" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G28" r:id="rId2" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="A1" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3182,34 +3663,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.8857142857143" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.1047619047619" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.552380952381" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.8857142857143" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.3333333333333" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.4380952380952" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.1047619047619" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="14" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.552380952381" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.6666666666667" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.552380952381" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
+    <row r="1" s="10" customFormat="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -3247,7 +3730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.8">
+    <row r="2" ht="30" spans="1:13">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -3284,36 +3767,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="26.4380952380952" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.3333333333333" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.8857142857143" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.6666666666667" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.1047619047619" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.4380952380952" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.8857142857143" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.1047619047619" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.8857142857143" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.6666666666667" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.4380952380952" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
+    <row r="1" s="10" customFormat="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -3352,7 +3837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="79.05" customHeight="1">
+    <row r="2" ht="79.05" customHeight="1" spans="1:13">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -3389,35 +3874,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="3" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.6666666666667" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="17.3333333333333" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.8857142857143" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="24" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="42.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.1047619047619" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.4380952380952" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.1047619047619" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.6666666666667" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="34.4380952380952" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="42.4380952380952" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
+    <row r="1" s="10" customFormat="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -3456,7 +3943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="86.4">
+    <row r="2" ht="105" spans="1:13">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -3493,26 +3980,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="13" max="13" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="30.3333333333333" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
+    <row r="1" s="10" customFormat="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -3551,7 +4040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="86.4">
+    <row r="2" ht="105" spans="1:13">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -3589,32 +4078,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="4" max="4" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.6666666666667" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.4380952380952" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.552380952381" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.552380952381" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.552380952381" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.3333333333333" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.4380952380952" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.8857142857143" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.3333333333333" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
+    <row r="1" s="10" customFormat="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -3653,7 +4144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="86.4">
+    <row r="2" ht="105" spans="1:13">
       <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
@@ -3690,8 +4181,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/InputData_Users.xlsx
+++ b/src/test/resources/TestData/InputData_Users.xlsx
@@ -1,36 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{193750AA-7FCE-4D27-AE5E-90BCD076E1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\eclipse-workspace\LMS_API_HACKATHON2122\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338AF6D8-D2E4-4BF7-B378-77FE4C460EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="19836" windowHeight="11220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Authorization" sheetId="1" r:id="rId1"/>
     <sheet name="InputData_User_GET" sheetId="2" r:id="rId2"/>
     <sheet name="InputData_Users_POST" sheetId="3" r:id="rId3"/>
-    <sheet name="InputData_Users_DELETE" sheetId="4" r:id="rId4"/>
-    <sheet name="Name_POST" sheetId="5" r:id="rId5"/>
-    <sheet name="location_POST" sheetId="6" r:id="rId6"/>
-    <sheet name="time_zone_POST" sheetId="7" r:id="rId7"/>
-    <sheet name="linkedin_url_POST" sheetId="8" r:id="rId8"/>
-    <sheet name="education_ug_POST" sheetId="9" r:id="rId9"/>
-    <sheet name="education_pg_POST" sheetId="10" r:id="rId10"/>
-    <sheet name="visa_status_POST" sheetId="11" r:id="rId11"/>
-    <sheet name="comments_POST" sheetId="12" r:id="rId12"/>
-    <sheet name="Invalid_Content" sheetId="13" r:id="rId13"/>
-    <sheet name="Text_POST" sheetId="14" r:id="rId14"/>
-    <sheet name="InputData_Users_PUT" sheetId="15" r:id="rId15"/>
+    <sheet name="InputData_Users_PUT" sheetId="15" r:id="rId4"/>
+    <sheet name="InputData_Users_DELETE" sheetId="4" r:id="rId5"/>
+    <sheet name="Name_POST" sheetId="5" r:id="rId6"/>
+    <sheet name="location_POST" sheetId="6" r:id="rId7"/>
+    <sheet name="time_zone_POST" sheetId="7" r:id="rId8"/>
+    <sheet name="linkedin_url_POST" sheetId="8" r:id="rId9"/>
+    <sheet name="education_ug_POST" sheetId="9" r:id="rId10"/>
+    <sheet name="education_pg_POST" sheetId="10" r:id="rId11"/>
+    <sheet name="visa_status_POST" sheetId="11" r:id="rId12"/>
+    <sheet name="comments_POST" sheetId="12" r:id="rId13"/>
+    <sheet name="Invalid_Content" sheetId="13" r:id="rId14"/>
+    <sheet name="Text_POST" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A14:F24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="210">
   <si>
     <t>SCENARIO</t>
   </si>
@@ -518,33 +522,15 @@
     <t>California</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/DaveWilliam</t>
-  </si>
-  <si>
     <t>Bachelor of Technology</t>
   </si>
   <si>
     <t>Master of Technology</t>
   </si>
   <si>
-    <t>Awesome</t>
-  </si>
-  <si>
-    <t>Only first or last name provided</t>
-  </si>
-  <si>
     <t>Failed to update-missing either first or last names</t>
   </si>
   <si>
-    <t>If any of the fields in POST request is missing in the request JSON (as per requirement document) - name, phone_number, location, time_zone, linkedin_url, education_ug, education_pg, visa_status, comments</t>
-  </si>
-  <si>
-    <t>Failed to update-missing mandatory fields</t>
-  </si>
-  <si>
-    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - name, phone_number, location, time_zone, visa_status</t>
-  </si>
-  <si>
     <t>Failed to update-missing mandatory data-name, phone number, location, time zone or visa status</t>
   </si>
   <si>
@@ -564,6 +550,120 @@
   </si>
   <si>
     <t>If phone number is less than 10 digits</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/DaveWilliam</t>
+  </si>
+  <si>
+    <t>U04</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/RyanMarkel</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - time_zone</t>
+  </si>
+  <si>
+    <t>Ryan,Markel</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - name</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - phone_number</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - location</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - visa_status</t>
+  </si>
+  <si>
+    <t>https://www.linkedin/RyanMarkel</t>
+  </si>
+  <si>
+    <t>ZST</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Dave12,William</t>
+  </si>
+  <si>
+    <t>If phone number is greater than 10 digits</t>
+  </si>
+  <si>
+    <t>If phone number is alpha numeric</t>
+  </si>
+  <si>
+    <t>4569ab3584</t>
+  </si>
+  <si>
+    <t>If phone number has special character</t>
+  </si>
+  <si>
+    <t>45692-3584</t>
+  </si>
+  <si>
+    <t>Update The data</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - linkedin_URL</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - education_ug</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - education_pg</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - comments</t>
+  </si>
+  <si>
+    <t>Only first name provided</t>
+  </si>
+  <si>
+    <t>Only last name provided</t>
+  </si>
+  <si>
+    <t>If location is alphanumeric</t>
+  </si>
+  <si>
+    <t>California123</t>
+  </si>
+  <si>
+    <t>New Jersey, Texas</t>
+  </si>
+  <si>
+    <t>BSc, BCA</t>
+  </si>
+  <si>
+    <t>MCA</t>
+  </si>
+  <si>
+    <t>Markel</t>
+  </si>
+  <si>
+    <t>Ryan,Ma342rkel</t>
+  </si>
+  <si>
+    <t>LastName provided is alphanumeric</t>
+  </si>
+  <si>
+    <t>FirstName provided is alphanumeric</t>
+  </si>
+  <si>
+    <t>Ry675an,Markel</t>
+  </si>
+  <si>
+    <t>Ryan123,Markel</t>
   </si>
 </sst>
 </file>
@@ -571,9 +671,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,27 +692,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -658,6 +737,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -699,41 +784,20 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -743,17 +807,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1037,15 +1116,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1061,8 +1140,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D2">
@@ -1072,14 +1151,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D3">
@@ -1089,14 +1168,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D4">
@@ -1106,14 +1185,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D5">
@@ -1132,6 +1211,110 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="105">
+      <c r="A2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2">
+        <v>400</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -1139,58 +1322,58 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="13" max="13" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="35.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="86.4">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:13" ht="105">
+      <c r="A2" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
@@ -1199,7 +1382,7 @@
       <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
@@ -1214,7 +1397,7 @@
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1226,7 +1409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -1234,58 +1417,58 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="13" max="13" width="31.109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="31.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="86.4">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:13" ht="105">
+      <c r="A2" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
@@ -1294,7 +1477,7 @@
       <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
@@ -1309,7 +1492,7 @@
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1321,7 +1504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -1329,59 +1512,59 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="43.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:13" ht="45">
+      <c r="A2" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
@@ -1390,7 +1573,7 @@
       <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
@@ -1405,7 +1588,7 @@
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1417,7 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -1425,42 +1608,42 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="13" max="13" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="10" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="86.4">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:13" ht="105">
+      <c r="A2" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="6"/>
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1469,7 +1652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -1477,65 +1660,65 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="72">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:13" ht="75">
+      <c r="A2" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
@@ -1544,7 +1727,7 @@
       <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
@@ -1562,282 +1745,13 @@
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="7" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:M10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="4" max="4" width="11.6640625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.8">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="67.95" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="7">
-        <v>4569213584</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L2" s="5">
-        <v>201</v>
-      </c>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="100.8">
-      <c r="A3" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9">
-        <v>400</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="403.2">
-      <c r="A4" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9">
-        <v>400</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="288">
-      <c r="A5" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9">
-        <v>400</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="150">
-      <c r="A6" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9">
-        <v>400</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="195">
-      <c r="A7" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9">
-        <v>400</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="345">
-      <c r="A8" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9">
-        <v>400</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="60">
-      <c r="A9" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9">
-        <v>400</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="75">
-      <c r="A10" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9">
-        <v>400</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1851,10 +1765,10 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1914,7 +1828,7 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C5">
@@ -1961,70 +1875,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="53.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
-    <col min="13" max="13" width="31.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B2" t="s">
@@ -2033,7 +1945,7 @@
       <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
@@ -2042,7 +1954,7 @@
       <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
@@ -2064,8 +1976,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="43.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:14" ht="60">
+      <c r="A3" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D3">
@@ -2077,7 +1989,7 @@
       <c r="F3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="6" t="s">
         <v>51</v>
       </c>
       <c r="H3" t="s">
@@ -2095,12 +2007,12 @@
       <c r="L3">
         <v>400</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="43.2">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:14" ht="60">
+      <c r="A4" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C4" t="s">
@@ -2112,7 +2024,7 @@
       <c r="F4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H4" t="s">
@@ -2130,12 +2042,12 @@
       <c r="L4">
         <v>400</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="43.2">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:14" ht="60">
+      <c r="A5" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C5" t="s">
@@ -2147,7 +2059,7 @@
       <c r="F5" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H5" t="s">
@@ -2165,12 +2077,12 @@
       <c r="L5">
         <v>400</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="43.2">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:14" ht="60">
+      <c r="A6" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C6" t="s">
@@ -2182,7 +2094,7 @@
       <c r="E6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H6" t="s">
@@ -2200,12 +2112,12 @@
       <c r="L6">
         <v>400</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B7" t="s">
@@ -2238,7 +2150,7 @@
       <c r="L7">
         <v>400</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="7" t="s">
         <v>68</v>
       </c>
       <c r="N7" t="s">
@@ -2246,7 +2158,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B8" t="s">
@@ -2264,7 +2176,7 @@
       <c r="F8" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="11" t="s">
         <v>60</v>
       </c>
       <c r="I8" t="s">
@@ -2279,7 +2191,7 @@
       <c r="L8">
         <v>400</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="7" t="s">
         <v>68</v>
       </c>
       <c r="N8" t="s">
@@ -2287,7 +2199,7 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B9" t="s">
@@ -2305,7 +2217,7 @@
       <c r="F9" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H9" t="s">
@@ -2320,15 +2232,15 @@
       <c r="L9">
         <v>400</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="7" t="s">
         <v>68</v>
       </c>
       <c r="N9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="52.05" customHeight="1">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:14" ht="52.15" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B10" t="s">
@@ -2346,7 +2258,7 @@
       <c r="F10" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H10" t="s">
@@ -2361,7 +2273,7 @@
       <c r="L10">
         <v>400</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2384,7 +2296,7 @@
       <c r="F11" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H11" t="s">
@@ -2399,14 +2311,14 @@
       <c r="L11">
         <v>400</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="7" t="s">
         <v>68</v>
       </c>
       <c r="N11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8">
+    <row r="12" spans="1:14" ht="30">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -2422,7 +2334,7 @@
       <c r="F12" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H12" t="s">
@@ -2440,11 +2352,11 @@
       <c r="L12">
         <v>400</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="M12" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="28.8">
+    <row r="13" spans="1:14" ht="30">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -2460,7 +2372,7 @@
       <c r="F13" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H13" t="s">
@@ -2478,12 +2390,12 @@
       <c r="L13">
         <v>400</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.8">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:14" ht="30">
+      <c r="A14" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B14" t="s">
@@ -2492,7 +2404,7 @@
       <c r="C14" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="16" t="s">
         <v>94</v>
       </c>
       <c r="E14" t="s">
@@ -2501,7 +2413,7 @@
       <c r="F14" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="6"/>
       <c r="J14" t="s">
         <v>46</v>
       </c>
@@ -2511,7 +2423,7 @@
       <c r="L14">
         <v>400</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2525,7 +2437,7 @@
       <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="16" t="s">
         <v>94</v>
       </c>
       <c r="E15" t="s">
@@ -2534,7 +2446,7 @@
       <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H15" t="s">
@@ -2552,7 +2464,7 @@
       <c r="L15">
         <v>201</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2563,7 +2475,7 @@
       <c r="C16" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="16" t="s">
         <v>94</v>
       </c>
       <c r="E16" t="s">
@@ -2572,7 +2484,7 @@
       <c r="F16" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H16" t="s">
@@ -2590,7 +2502,7 @@
       <c r="L16">
         <v>400</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2601,7 +2513,7 @@
       <c r="C17" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="16" t="s">
         <v>94</v>
       </c>
       <c r="E17" t="s">
@@ -2610,7 +2522,7 @@
       <c r="F17" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="6" t="s">
         <v>108</v>
       </c>
       <c r="H17" t="s">
@@ -2628,7 +2540,7 @@
       <c r="L17">
         <v>400</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2639,7 +2551,7 @@
       <c r="C18" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="16" t="s">
         <v>94</v>
       </c>
       <c r="E18" t="s">
@@ -2648,7 +2560,7 @@
       <c r="F18" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I18" t="s">
@@ -2663,7 +2575,7 @@
       <c r="L18">
         <v>400</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M18" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2683,7 +2595,7 @@
       <c r="F19" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H19" t="s">
@@ -2701,7 +2613,7 @@
       <c r="L19">
         <v>400</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2712,7 +2624,7 @@
       <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E20" t="s">
@@ -2721,7 +2633,7 @@
       <c r="F20" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="6" t="s">
         <v>114</v>
       </c>
       <c r="H20" t="s">
@@ -2739,7 +2651,7 @@
       <c r="L20">
         <v>201</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M20" s="14" t="s">
         <v>48</v>
       </c>
       <c r="N20" t="s">
@@ -2753,7 +2665,7 @@
       <c r="C21" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="s">
@@ -2762,7 +2674,7 @@
       <c r="F21" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H21" t="s">
@@ -2780,7 +2692,7 @@
       <c r="L21">
         <v>201</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M21" s="14" t="s">
         <v>48</v>
       </c>
       <c r="N21" t="s">
@@ -2794,7 +2706,7 @@
       <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E22" t="s">
@@ -2803,7 +2715,7 @@
       <c r="F22" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H22" t="s">
@@ -2821,7 +2733,7 @@
       <c r="L22">
         <v>201</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="14" t="s">
         <v>48</v>
       </c>
       <c r="N22" t="s">
@@ -2829,13 +2741,13 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="13" t="s">
         <v>121</v>
       </c>
       <c r="C23" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E23" t="s">
@@ -2844,7 +2756,7 @@
       <c r="F23" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H23" t="s">
@@ -2862,12 +2774,12 @@
       <c r="L23">
         <v>400</v>
       </c>
-      <c r="M23" s="14" t="s">
+      <c r="M23" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="43.2">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:14" ht="60">
+      <c r="A24" s="8" t="s">
         <v>124</v>
       </c>
       <c r="E24" t="s">
@@ -2876,7 +2788,7 @@
       <c r="F24" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H24" t="s">
@@ -2894,12 +2806,12 @@
       <c r="L24">
         <v>400</v>
       </c>
-      <c r="M24" s="14" t="s">
+      <c r="M24" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="43.2">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:14" ht="60">
+      <c r="A25" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C25" t="s">
@@ -2908,7 +2820,7 @@
       <c r="D25">
         <v>37523454657</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H25" t="s">
@@ -2926,12 +2838,12 @@
       <c r="L25">
         <v>400</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:14" ht="30">
+      <c r="A26" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B26" t="s">
@@ -2940,7 +2852,7 @@
       <c r="C26" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E26" t="s">
@@ -2949,7 +2861,7 @@
       <c r="F26" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="11" t="s">
         <v>100</v>
       </c>
       <c r="H26" t="s">
@@ -2967,15 +2879,15 @@
       <c r="L26">
         <v>400</v>
       </c>
-      <c r="M26" s="14" t="s">
+      <c r="M26" s="7" t="s">
         <v>132</v>
       </c>
       <c r="N26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:14" ht="30">
+      <c r="A27" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B27" t="s">
@@ -2984,7 +2896,7 @@
       <c r="C27" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E27" t="s">
@@ -2993,7 +2905,7 @@
       <c r="F27" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="11" t="s">
         <v>100</v>
       </c>
       <c r="H27" t="s">
@@ -3011,7 +2923,7 @@
       <c r="L27">
         <v>400</v>
       </c>
-      <c r="M27" s="14" t="s">
+      <c r="M27" s="7" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3025,7 +2937,7 @@
       <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E28" t="s">
@@ -3034,7 +2946,7 @@
       <c r="F28" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H28" t="s">
@@ -3092,6 +3004,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1">
+      <c r="A1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1">
+      <c r="A2" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="21">
+        <v>4569213584</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" s="20">
+        <v>201</v>
+      </c>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="30">
+      <c r="A3" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5682314978</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L3" s="8">
+        <v>400</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="30">
+      <c r="A4" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5682314978</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L4" s="8">
+        <v>400</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="30">
+      <c r="A5" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5682314978</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" s="8">
+        <v>400</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="30">
+      <c r="A6" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5682314978</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L6" s="8">
+        <v>400</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="30">
+      <c r="A7" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="8">
+        <v>5682314978</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L7" s="8">
+        <v>400</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="45">
+      <c r="A8" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5682314978</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="8">
+        <v>400</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="45">
+      <c r="A9" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <v>5682314978</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="8">
+        <v>400</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="45">
+      <c r="A10" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="8">
+        <v>400</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="45">
+      <c r="A11" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="8">
+        <v>5682314978</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" s="8">
+        <v>400</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="45">
+      <c r="A12" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5682314978</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L12" s="8">
+        <v>400</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="45">
+      <c r="A13" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5682314978</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13" s="8">
+        <v>400</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="45">
+      <c r="A14" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="8">
+        <v>5682314978</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="8">
+        <v>400</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="45">
+      <c r="A15" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="8">
+        <v>5682314978</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L15" s="8">
+        <v>400</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="45">
+      <c r="A16" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="8">
+        <v>5682314978</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="L16" s="8">
+        <v>400</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="30">
+      <c r="A17" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="8">
+        <v>5682314978</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L17" s="8">
+        <v>400</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="30">
+      <c r="A18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="8">
+        <v>5682314978</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" s="8">
+        <v>400</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="30">
+      <c r="A19" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="8">
+        <v>5682314978</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" s="8">
+        <v>400</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1" ht="45">
+      <c r="A20" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="21">
+        <v>4569213584</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" s="8">
+        <v>400</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="63" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="21">
+        <v>4569213584</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L21" s="8">
+        <v>400</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="63" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="21">
+        <v>4569213584</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" s="8">
+        <v>400</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="21">
+        <v>4569213584</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" s="8">
+        <v>400</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="21">
+        <v>45692135</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" s="8">
+        <v>400</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="21">
+        <v>45692135842</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" s="8">
+        <v>400</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L26" s="8">
+        <v>400</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L27" s="8">
+        <v>400</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{6BE496A4-D500-40B1-8EE1-64D521A05459}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{7F9AE5C9-A0D5-40BC-AA32-043957240C0F}"/>
+    <hyperlink ref="G8" r:id="rId3" xr:uid="{20E4A621-F053-4CC9-9F7D-9FBB939C5969}"/>
+    <hyperlink ref="G9" r:id="rId4" xr:uid="{FEBE05AF-1533-438E-9933-E7E2ADEF7745}"/>
+    <hyperlink ref="G10" r:id="rId5" xr:uid="{6381803F-73C4-4EC0-A3C3-C272FAE4B330}"/>
+    <hyperlink ref="G11" r:id="rId6" xr:uid="{99905FBC-AA3D-4B1E-81BD-E697DAA0ED56}"/>
+    <hyperlink ref="G12" r:id="rId7" xr:uid="{94567BFF-F7EB-4C57-ACA5-A01D1A9B4EAE}"/>
+    <hyperlink ref="G17" r:id="rId8" xr:uid="{2819C69D-0DE3-4CBF-A58E-C66B7D5471FC}"/>
+    <hyperlink ref="G20" r:id="rId9" xr:uid="{3F0E782A-D235-4B68-8643-18FEB7A4123C}"/>
+    <hyperlink ref="G21" r:id="rId10" xr:uid="{93285090-5449-4791-AAA0-AE55AF679C5D}"/>
+    <hyperlink ref="G23" r:id="rId11" xr:uid="{475CE726-3469-4463-BA49-AFF578289195}"/>
+    <hyperlink ref="G24" r:id="rId12" xr:uid="{282FEBA4-5BAF-4EC0-9B2C-2C6B92536C85}"/>
+    <hyperlink ref="G25" r:id="rId13" xr:uid="{60AEC3BF-4908-4DAC-8808-039E23AF5D70}"/>
+    <hyperlink ref="G26" r:id="rId14" xr:uid="{AF92BE92-3963-4023-BD5C-DB045B3A43A2}"/>
+    <hyperlink ref="G27" r:id="rId15" xr:uid="{37AA0269-F4F4-4C8A-8DB5-4D415C88B50D}"/>
+    <hyperlink ref="G14" r:id="rId16" xr:uid="{5F3A39E6-F1ED-4517-99DF-5AF4351619E4}"/>
+    <hyperlink ref="G15" r:id="rId17" xr:uid="{7146BA4F-5C34-4096-B288-380268B3D75B}"/>
+    <hyperlink ref="G16" r:id="rId18" xr:uid="{3765C790-33BA-4265-907D-837EEC7D2C18}"/>
+    <hyperlink ref="G4" r:id="rId19" xr:uid="{F4B02A5F-DD86-4C5B-A361-99CB61879114}"/>
+    <hyperlink ref="G22" r:id="rId20" xr:uid="{335D2900-6A0D-4A7E-9EDE-60886FEEE82D}"/>
+    <hyperlink ref="G5" r:id="rId21" xr:uid="{B9E0B31C-C06D-4F60-A189-1C2C80A844B6}"/>
+    <hyperlink ref="G18" r:id="rId22" xr:uid="{3D22DDA4-137C-45AA-A8C9-7A094552A47D}"/>
+    <hyperlink ref="G19" r:id="rId23" xr:uid="{3E289640-E79C-4CB1-A911-2858CABBA1C1}"/>
+    <hyperlink ref="G6" r:id="rId24" xr:uid="{DDFF81DC-BFC7-4964-B9DA-74DAF2B5C73F}"/>
+    <hyperlink ref="G7" r:id="rId25" xr:uid="{FE769B79-7097-4743-AD84-220C100DB54A}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -3099,19 +4169,19 @@
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3119,10 +4189,10 @@
       <c r="A2" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="9">
         <v>200</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="9" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3130,10 +4200,10 @@
       <c r="A3" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="9">
         <v>404</v>
       </c>
       <c r="D3" t="s">
@@ -3144,10 +4214,10 @@
       <c r="A4" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="9">
         <v>404</v>
       </c>
       <c r="D4" t="s">
@@ -3161,7 +4231,7 @@
       <c r="B5" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="9">
         <v>404</v>
       </c>
       <c r="D5" t="s">
@@ -3172,8 +4242,8 @@
       <c r="A6" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9">
         <v>404</v>
       </c>
       <c r="D6" t="s">
@@ -3185,7 +4255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -3193,65 +4263,65 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="14" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.8">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:13" ht="30">
+      <c r="A2" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
@@ -3260,7 +4330,7 @@
       <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
@@ -3278,7 +4348,7 @@
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3290,7 +4360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -3298,74 +4368,74 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="79.05" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:13" ht="79.150000000000006" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
@@ -3377,13 +4447,13 @@
       <c r="J2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="8" t="s">
         <v>47</v>
       </c>
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3395,7 +4465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -3403,73 +4473,73 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="24" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="42.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="42.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="86.4">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:13" ht="105">
+      <c r="A2" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
@@ -3487,7 +4557,7 @@
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3499,7 +4569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -3507,58 +4577,58 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="13" max="13" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="30.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="86.4">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:13" ht="105">
+      <c r="A2" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
@@ -3567,7 +4637,7 @@
       <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="6"/>
       <c r="H2" t="s">
         <v>44</v>
       </c>
@@ -3583,115 +4653,11 @@
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="7" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="4" max="4" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.33203125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1">
-      <c r="A1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="86.4">
-      <c r="A2" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2">
-        <v>400</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestData/InputData_Users.xlsx
+++ b/src/test/resources/TestData/InputData_Users.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\eclipse-workspace\LMS_API_HACKATHON2122\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338AF6D8-D2E4-4BF7-B378-77FE4C460EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Authorization" sheetId="1" r:id="rId1"/>
@@ -29,7 +23,7 @@
     <sheet name="Invalid_Content" sheetId="13" r:id="rId14"/>
     <sheet name="Text_POST" sheetId="14" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -459,6 +453,159 @@
     <t>Faile to create-Record already exists</t>
   </si>
   <si>
+    <t>Update the record with valid data</t>
+  </si>
+  <si>
+    <t>Dave,William</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/DaveWilliam</t>
+  </si>
+  <si>
+    <t>Bachelor of Technology</t>
+  </si>
+  <si>
+    <t>Master of Technology</t>
+  </si>
+  <si>
+    <t>Update The data</t>
+  </si>
+  <si>
+    <t>Only first name provided</t>
+  </si>
+  <si>
+    <t>U04</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/RyanMarkel</t>
+  </si>
+  <si>
+    <t>Failed to update-missing either first or last names</t>
+  </si>
+  <si>
+    <t>Only last name provided</t>
+  </si>
+  <si>
+    <t>Markel</t>
+  </si>
+  <si>
+    <t>LastName provided is alphanumeric</t>
+  </si>
+  <si>
+    <t>Ryan,Ma342rkel</t>
+  </si>
+  <si>
+    <t>Failed to update-invalid data</t>
+  </si>
+  <si>
+    <t>FirstName provided is alphanumeric</t>
+  </si>
+  <si>
+    <t>Ry675an,Markel</t>
+  </si>
+  <si>
+    <t>Ryan123,Markel</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - time_zone</t>
+  </si>
+  <si>
+    <t>Ryan,Markel</t>
+  </si>
+  <si>
+    <t>Failed to update-missing mandatory data-name, phone number, location, time zone or visa status</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - name</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - phone_number</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - location</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - visa_status</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - linkedin_URL</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - education_ug</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - education_pg</t>
+  </si>
+  <si>
+    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If url given for linkedin_url field does not contain "https://www.linkedin.com/" </t>
+  </si>
+  <si>
+    <t>https://www.linkedin/RyanMarkel</t>
+  </si>
+  <si>
+    <t>New Jersey, Texas</t>
+  </si>
+  <si>
+    <t>BSc, BCA</t>
+  </si>
+  <si>
+    <t>MCA</t>
+  </si>
+  <si>
+    <t>If time zone given for time_zone field is anything other than - ['PST', 'MST', 'CST', 'EST', 'IST']</t>
+  </si>
+  <si>
+    <t>ZST</t>
+  </si>
+  <si>
+    <t>If visa status given for visa_status field is anything other than - ['Not-Specified', 'NA', 'GC-EAD', 'H4-EAD', 'H4', 'H1B', 'Canada-EAD', 'Indian-Citizen', 'US-Citizen', 'Canada-Citizen']</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>If location is alphanumeric</t>
+  </si>
+  <si>
+    <t>Dave12,William</t>
+  </si>
+  <si>
+    <t>California123</t>
+  </si>
+  <si>
+    <t>If name is aphanumeric</t>
+  </si>
+  <si>
+    <t>If phone number is less than 10 digits</t>
+  </si>
+  <si>
+    <t>If phone number is greater than 10 digits</t>
+  </si>
+  <si>
+    <t>If phone number is alpha numeric</t>
+  </si>
+  <si>
+    <t>4569ab3584</t>
+  </si>
+  <si>
+    <t>If phone number has special character</t>
+  </si>
+  <si>
+    <t>45692-3584</t>
+  </si>
+  <si>
     <t>To delete an existing user id</t>
   </si>
   <si>
@@ -511,184 +658,20 @@
   </si>
   <si>
     <t>Failed to create-missing mandatory fields</t>
-  </si>
-  <si>
-    <t>Update the record with valid data</t>
-  </si>
-  <si>
-    <t>Dave,William</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Bachelor of Technology</t>
-  </si>
-  <si>
-    <t>Master of Technology</t>
-  </si>
-  <si>
-    <t>Failed to update-missing either first or last names</t>
-  </si>
-  <si>
-    <t>Failed to update-missing mandatory data-name, phone number, location, time zone or visa status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If url given for linkedin_url field does not contain "https://www.linkedin.com/" </t>
-  </si>
-  <si>
-    <t>Failed to update-invalid data</t>
-  </si>
-  <si>
-    <t>If time zone given for time_zone field is anything other than - ['PST', 'MST', 'CST', 'EST', 'IST']</t>
-  </si>
-  <si>
-    <t>If visa status given for visa_status field is anything other than - ['Not-Specified', 'NA', 'GC-EAD', 'H4-EAD', 'H4', 'H1B', 'Canada-EAD', 'Indian-Citizen', 'US-Citizen', 'Canada-Citizen']</t>
-  </si>
-  <si>
-    <t>If name is aphanumeric</t>
-  </si>
-  <si>
-    <t>If phone number is less than 10 digits</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/DaveWilliam</t>
-  </si>
-  <si>
-    <t>U04</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/RyanMarkel</t>
-  </si>
-  <si>
-    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - time_zone</t>
-  </si>
-  <si>
-    <t>Ryan,Markel</t>
-  </si>
-  <si>
-    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - name</t>
-  </si>
-  <si>
-    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - phone_number</t>
-  </si>
-  <si>
-    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - location</t>
-  </si>
-  <si>
-    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - visa_status</t>
-  </si>
-  <si>
-    <t>https://www.linkedin/RyanMarkel</t>
-  </si>
-  <si>
-    <t>ZST</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>Dave12,William</t>
-  </si>
-  <si>
-    <t>If phone number is greater than 10 digits</t>
-  </si>
-  <si>
-    <t>If phone number is alpha numeric</t>
-  </si>
-  <si>
-    <t>4569ab3584</t>
-  </si>
-  <si>
-    <t>If phone number has special character</t>
-  </si>
-  <si>
-    <t>45692-3584</t>
-  </si>
-  <si>
-    <t>Update The data</t>
-  </si>
-  <si>
-    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - linkedin_URL</t>
-  </si>
-  <si>
-    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - education_ug</t>
-  </si>
-  <si>
-    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - education_pg</t>
-  </si>
-  <si>
-    <t>If the values for any of the following field is left blank (an empty string like " ") in the request JSON - comments</t>
-  </si>
-  <si>
-    <t>Only first name provided</t>
-  </si>
-  <si>
-    <t>Only last name provided</t>
-  </si>
-  <si>
-    <t>If location is alphanumeric</t>
-  </si>
-  <si>
-    <t>California123</t>
-  </si>
-  <si>
-    <t>New Jersey, Texas</t>
-  </si>
-  <si>
-    <t>BSc, BCA</t>
-  </si>
-  <si>
-    <t>MCA</t>
-  </si>
-  <si>
-    <t>Markel</t>
-  </si>
-  <si>
-    <t>Ryan,Ma342rkel</t>
-  </si>
-  <si>
-    <t>LastName provided is alphanumeric</t>
-  </si>
-  <si>
-    <t>FirstName provided is alphanumeric</t>
-  </si>
-  <si>
-    <t>Ry675an,Markel</t>
-  </si>
-  <si>
-    <t>Ryan123,Markel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="10">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,6 +701,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -738,13 +727,143 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,8 +876,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -781,23 +1086,260 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -806,47 +1348,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1104,27 +1690,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="47.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
+    <col min="4" max="4" width="10.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+    <row r="1" ht="15.75" spans="1:5">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1140,8 +1726,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="15" t="s">
+    <row r="2" ht="30.75" spans="1:5">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D2">
@@ -1151,14 +1737,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="15" t="s">
+    <row r="3" ht="30.75" spans="1:5">
+      <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D3">
@@ -1168,14 +1754,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="15" t="s">
+    <row r="4" ht="30.75" spans="1:5">
+      <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
@@ -1185,14 +1771,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="15" t="s">
+    <row r="5" ht="30.75" spans="1:4">
+      <c r="A5" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5">
@@ -1201,93 +1787,95 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId1" display="2xx@Success"/>
+    <hyperlink ref="C4" r:id="rId2" display="New@2022"/>
+    <hyperlink ref="C5" r:id="rId1" display="2xx@Success"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="4" max="4" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.5714285714286" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.2857142857143" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="105">
-      <c r="A2" s="5" t="s">
-        <v>151</v>
+    <row r="2" ht="105" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I2" t="s">
@@ -1302,87 +1890,89 @@
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="13" max="13" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="35.2857142857143" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="105">
-      <c r="A2" s="5" t="s">
-        <v>151</v>
+    <row r="2" ht="105" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
@@ -1397,87 +1987,89 @@
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="13" max="13" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="31.1428571428571" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="105">
-      <c r="A2" s="5" t="s">
-        <v>151</v>
+    <row r="2" ht="105" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
@@ -1492,88 +2084,90 @@
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.4285714285714" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="45">
-      <c r="A2" s="5" t="s">
-        <v>151</v>
+    <row r="2" ht="45" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
@@ -1588,187 +2182,193 @@
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="13" max="13" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="105">
-      <c r="A2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="6"/>
+    <row r="2" ht="105" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="4"/>
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.2857142857143" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="75">
-      <c r="A2" s="5" t="s">
-        <v>151</v>
+    <row r="2" ht="75" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>158</v>
+      <c r="M2" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="8.28571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1785,7 +2385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1828,7 +2428,7 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C5">
@@ -1865,78 +2465,82 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId1" display="US@03"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="53.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="17.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="39.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="39.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="16.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="17.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="12.2857142857143" customWidth="1"/>
+    <col min="11" max="11" width="24.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="10.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="31.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B2" t="s">
@@ -1945,7 +2549,7 @@
       <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
@@ -1954,7 +2558,7 @@
       <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
@@ -1976,8 +2580,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="60">
-      <c r="A3" s="10" t="s">
+    <row r="3" ht="45" spans="1:13">
+      <c r="A3" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D3">
@@ -1989,7 +2593,7 @@
       <c r="F3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H3" t="s">
@@ -2007,12 +2611,12 @@
       <c r="L3">
         <v>400</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="60">
-      <c r="A4" s="10" t="s">
+    <row r="4" ht="45" spans="1:13">
+      <c r="A4" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C4" t="s">
@@ -2024,7 +2628,7 @@
       <c r="F4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H4" t="s">
@@ -2042,12 +2646,12 @@
       <c r="L4">
         <v>400</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="60">
-      <c r="A5" s="10" t="s">
+    <row r="5" ht="45" spans="1:13">
+      <c r="A5" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C5" t="s">
@@ -2059,7 +2663,7 @@
       <c r="F5" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H5" t="s">
@@ -2077,12 +2681,12 @@
       <c r="L5">
         <v>400</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60">
-      <c r="A6" s="10" t="s">
+    <row r="6" ht="45" spans="1:13">
+      <c r="A6" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C6" t="s">
@@ -2094,7 +2698,7 @@
       <c r="E6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H6" t="s">
@@ -2112,12 +2716,12 @@
       <c r="L6">
         <v>400</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B7" t="s">
@@ -2150,7 +2754,7 @@
       <c r="L7">
         <v>400</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="5" t="s">
         <v>68</v>
       </c>
       <c r="N7" t="s">
@@ -2158,7 +2762,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B8" t="s">
@@ -2176,7 +2780,7 @@
       <c r="F8" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="16" t="s">
         <v>60</v>
       </c>
       <c r="I8" t="s">
@@ -2191,7 +2795,7 @@
       <c r="L8">
         <v>400</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="5" t="s">
         <v>68</v>
       </c>
       <c r="N8" t="s">
@@ -2199,7 +2803,7 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B9" t="s">
@@ -2217,7 +2821,7 @@
       <c r="F9" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H9" t="s">
@@ -2232,15 +2836,15 @@
       <c r="L9">
         <v>400</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="5" t="s">
         <v>68</v>
       </c>
       <c r="N9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="52.15" customHeight="1">
-      <c r="A10" s="10" t="s">
+    <row r="10" ht="52.15" customHeight="1" spans="1:13">
+      <c r="A10" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B10" t="s">
@@ -2258,7 +2862,7 @@
       <c r="F10" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H10" t="s">
@@ -2273,7 +2877,7 @@
       <c r="L10">
         <v>400</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2296,7 +2900,7 @@
       <c r="F11" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H11" t="s">
@@ -2311,14 +2915,14 @@
       <c r="L11">
         <v>400</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="5" t="s">
         <v>68</v>
       </c>
       <c r="N11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="30">
+    <row r="12" ht="30" spans="1:13">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -2334,7 +2938,7 @@
       <c r="F12" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H12" t="s">
@@ -2352,11 +2956,11 @@
       <c r="L12">
         <v>400</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30">
+    <row r="13" ht="30" spans="1:13">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -2372,7 +2976,7 @@
       <c r="F13" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H13" t="s">
@@ -2390,12 +2994,12 @@
       <c r="L13">
         <v>400</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="30">
-      <c r="A14" s="12" t="s">
+    <row r="14" ht="30" spans="1:13">
+      <c r="A14" s="17" t="s">
         <v>91</v>
       </c>
       <c r="B14" t="s">
@@ -2404,7 +3008,7 @@
       <c r="C14" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="21" t="s">
         <v>94</v>
       </c>
       <c r="E14" t="s">
@@ -2413,7 +3017,7 @@
       <c r="F14" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="4"/>
       <c r="J14" t="s">
         <v>46</v>
       </c>
@@ -2423,11 +3027,11 @@
       <c r="L14">
         <v>400</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -2437,7 +3041,7 @@
       <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="21" t="s">
         <v>94</v>
       </c>
       <c r="E15" t="s">
@@ -2446,7 +3050,7 @@
       <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H15" t="s">
@@ -2464,18 +3068,18 @@
       <c r="L15">
         <v>201</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>104</v>
       </c>
       <c r="C16" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="21" t="s">
         <v>94</v>
       </c>
       <c r="E16" t="s">
@@ -2484,7 +3088,7 @@
       <c r="F16" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H16" t="s">
@@ -2502,18 +3106,18 @@
       <c r="L16">
         <v>400</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>107</v>
       </c>
       <c r="C17" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="21" t="s">
         <v>94</v>
       </c>
       <c r="E17" t="s">
@@ -2522,7 +3126,7 @@
       <c r="F17" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H17" t="s">
@@ -2540,18 +3144,18 @@
       <c r="L17">
         <v>400</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>110</v>
       </c>
       <c r="C18" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="21" t="s">
         <v>94</v>
       </c>
       <c r="E18" t="s">
@@ -2560,7 +3164,7 @@
       <c r="F18" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I18" t="s">
@@ -2575,11 +3179,11 @@
       <c r="L18">
         <v>400</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -2595,7 +3199,7 @@
       <c r="F19" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H19" t="s">
@@ -2613,7 +3217,7 @@
       <c r="L19">
         <v>400</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2624,7 +3228,7 @@
       <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E20" t="s">
@@ -2633,7 +3237,7 @@
       <c r="F20" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="4" t="s">
         <v>114</v>
       </c>
       <c r="H20" t="s">
@@ -2651,7 +3255,7 @@
       <c r="L20">
         <v>201</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="M20" s="19" t="s">
         <v>48</v>
       </c>
       <c r="N20" t="s">
@@ -2665,7 +3269,7 @@
       <c r="C21" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="s">
@@ -2674,7 +3278,7 @@
       <c r="F21" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H21" t="s">
@@ -2692,7 +3296,7 @@
       <c r="L21">
         <v>201</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="19" t="s">
         <v>48</v>
       </c>
       <c r="N21" t="s">
@@ -2706,7 +3310,7 @@
       <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E22" t="s">
@@ -2715,7 +3319,7 @@
       <c r="F22" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H22" t="s">
@@ -2733,21 +3337,21 @@
       <c r="L22">
         <v>201</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="19" t="s">
         <v>48</v>
       </c>
       <c r="N22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:13">
+      <c r="A23" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C23" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E23" t="s">
@@ -2756,7 +3360,7 @@
       <c r="F23" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H23" t="s">
@@ -2774,12 +3378,12 @@
       <c r="L23">
         <v>400</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="60">
-      <c r="A24" s="8" t="s">
+    <row r="24" ht="45" spans="1:13">
+      <c r="A24" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E24" t="s">
@@ -2788,7 +3392,7 @@
       <c r="F24" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H24" t="s">
@@ -2806,12 +3410,12 @@
       <c r="L24">
         <v>400</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="60">
-      <c r="A25" s="8" t="s">
+    <row r="25" ht="45" spans="1:13">
+      <c r="A25" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C25" t="s">
@@ -2820,7 +3424,7 @@
       <c r="D25">
         <v>37523454657</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H25" t="s">
@@ -2838,12 +3442,12 @@
       <c r="L25">
         <v>400</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="30">
-      <c r="A26" s="8" t="s">
+    <row r="26" ht="30" spans="1:14">
+      <c r="A26" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B26" t="s">
@@ -2852,7 +3456,7 @@
       <c r="C26" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E26" t="s">
@@ -2861,7 +3465,7 @@
       <c r="F26" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="16" t="s">
         <v>100</v>
       </c>
       <c r="H26" t="s">
@@ -2879,15 +3483,15 @@
       <c r="L26">
         <v>400</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="5" t="s">
         <v>132</v>
       </c>
       <c r="N26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="30">
-      <c r="A27" s="8" t="s">
+    <row r="27" ht="30" spans="1:13">
+      <c r="A27" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B27" t="s">
@@ -2896,7 +3500,7 @@
       <c r="C27" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E27" t="s">
@@ -2905,7 +3509,7 @@
       <c r="F27" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="16" t="s">
         <v>100</v>
       </c>
       <c r="H27" t="s">
@@ -2923,7 +3527,7 @@
       <c r="L27">
         <v>400</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="5" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2937,7 +3541,7 @@
       <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E28" t="s">
@@ -2946,7 +3550,7 @@
       <c r="F28" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H28" t="s">
@@ -2973,1355 +3577,1361 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" tooltip="https://www.linkedin.com/in/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="G5" r:id="rId4" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="G6" r:id="rId5" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="G8" r:id="rId6" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="G9" r:id="rId7" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="G10" r:id="rId8" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="G11" r:id="rId9" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="G12" r:id="rId10" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="G13" r:id="rId11" tooltip="https://www.linkedin.com/in/honey comb" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="G15" r:id="rId12" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="G16" r:id="rId13" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="G17" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="G18" r:id="rId15" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="G19" r:id="rId16" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="G20" r:id="rId17" tooltip="https://linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="G21" r:id="rId18" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="G22" r:id="rId19" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="G23" r:id="rId20" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="G24" r:id="rId21" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="G25" r:id="rId22" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="G26" r:id="rId23" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="G27" r:id="rId24" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="G28" r:id="rId25" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://www.linkedin.com/in/" tooltip="https://www.linkedin.com/in/"/>
+    <hyperlink ref="G2" r:id="rId2" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
+    <hyperlink ref="G4" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G5" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G6" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G8" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G9" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G10" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G11" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G12" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G13" r:id="rId2" display="https://www.linkedin.com/in/honey comb" tooltip="https://www.linkedin.com/in/honey comb"/>
+    <hyperlink ref="G15" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G16" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G17" r:id="rId4" display="https://www.google.com/"/>
+    <hyperlink ref="G18" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G19" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G20" r:id="rId2" display="https://linkedin.com/in/apple bees/" tooltip="https://linkedin.com/in/apple bees/"/>
+    <hyperlink ref="G21" r:id="rId2" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
+    <hyperlink ref="G22" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G23" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G24" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G25" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G26" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G27" r:id="rId3" display="https://www.linkedin.com/in/sansacindy" tooltip="https://www.linkedin.com/in/sansacindy"/>
+    <hyperlink ref="G28" r:id="rId2" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="37.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="20.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="10.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="13.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="37.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:13">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1">
-      <c r="A2" s="20" t="s">
+    <row r="2" s="9" customFormat="1" spans="1:13">
+      <c r="A2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="13">
+        <v>4569213584</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="12">
+        <v>201</v>
+      </c>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="30" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5682314978</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" s="6">
+        <v>400</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="30" spans="1:13">
+      <c r="A4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5682314978</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="6">
+        <v>400</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" s="9" customFormat="1" spans="1:13">
+      <c r="A5" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5682314978</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" s="6">
+        <v>400</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="1" spans="1:13">
+      <c r="A6" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5682314978</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" s="6">
+        <v>400</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" s="9" customFormat="1" spans="1:13">
+      <c r="A7" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5682314978</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="6">
+        <v>400</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" s="9" customFormat="1" ht="45" spans="1:13">
+      <c r="A8" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5682314978</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L8" s="6">
+        <v>400</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" s="9" customFormat="1" ht="45" spans="1:13">
+      <c r="A9" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>5682314978</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" s="6">
+        <v>400</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" s="9" customFormat="1" ht="45" spans="1:13">
+      <c r="A10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="6">
+        <v>400</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" s="9" customFormat="1" ht="45" spans="1:13">
+      <c r="A11" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5682314978</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" s="6">
+        <v>400</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" s="9" customFormat="1" ht="45" spans="1:13">
+      <c r="A12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5682314978</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L12" s="6">
+        <v>400</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" s="9" customFormat="1" ht="45" spans="1:13">
+      <c r="A13" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5682314978</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" s="6">
+        <v>400</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" s="9" customFormat="1" ht="45" spans="1:13">
+      <c r="A14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5682314978</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" s="6">
+        <v>400</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" s="9" customFormat="1" ht="45" spans="1:13">
+      <c r="A15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5682314978</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" s="6">
+        <v>400</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" s="9" customFormat="1" ht="45" spans="1:13">
+      <c r="A16" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5682314978</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="6">
+        <v>400</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" s="9" customFormat="1" ht="30" spans="1:13">
+      <c r="A17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5682314978</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" s="6">
+        <v>400</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" s="9" customFormat="1" ht="30" spans="1:13">
+      <c r="A18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5682314978</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" s="6">
+        <v>400</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" s="9" customFormat="1" ht="30" spans="1:13">
+      <c r="A19" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5682314978</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" s="6">
+        <v>400</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" s="9" customFormat="1" ht="45" spans="1:13">
+      <c r="A20" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="21">
+      <c r="C20" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="13">
         <v>4569213584</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="E20" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="6">
+        <v>400</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" ht="63" customHeight="1" spans="1:13">
+      <c r="A21" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="13">
+        <v>4569213584</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="G21" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L21" s="6">
+        <v>400</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" ht="63" customHeight="1" spans="1:13">
+      <c r="A22" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="13">
+        <v>4569213584</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L2" s="20">
-        <v>201</v>
-      </c>
-      <c r="M2" s="20"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="30">
-      <c r="A3" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="8">
-        <v>5682314978</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L3" s="8">
-        <v>400</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="30">
-      <c r="A4" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="8">
-        <v>5682314978</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L4" s="8">
-        <v>400</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="30">
-      <c r="A5" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="8">
-        <v>5682314978</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L5" s="8">
-        <v>400</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="30">
-      <c r="A6" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="8">
-        <v>5682314978</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L6" s="8">
-        <v>400</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="30">
-      <c r="A7" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="8">
-        <v>5682314978</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L7" s="8">
-        <v>400</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="45">
-      <c r="A8" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="8">
-        <v>5682314978</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L8" s="8">
-        <v>400</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="45">
-      <c r="A9" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8">
-        <v>5682314978</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="K22" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L22" s="6">
+        <v>400</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="13">
+        <v>4569213584</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L9" s="8">
-        <v>400</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="45">
-      <c r="A10" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L10" s="8">
-        <v>400</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="45">
-      <c r="A11" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="8">
-        <v>5682314978</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L11" s="8">
-        <v>400</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="45">
-      <c r="A12" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="8">
-        <v>5682314978</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L12" s="8">
-        <v>400</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="45">
-      <c r="A13" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="8">
-        <v>5682314978</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="G23" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L13" s="8">
-        <v>400</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="45">
-      <c r="A14" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="8">
-        <v>5682314978</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J14" s="8" t="s">
+      <c r="K23" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L23" s="6">
+        <v>400</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="13">
+        <v>45692135</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="8">
-        <v>400</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="45">
-      <c r="A15" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="8">
-        <v>5682314978</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8" t="s">
+      <c r="K24" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="6">
+        <v>400</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="13">
+        <v>45692135842</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L15" s="8">
-        <v>400</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="45">
-      <c r="A16" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" s="8">
-        <v>5682314978</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J16" s="8" t="s">
+      <c r="K25" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="6">
+        <v>400</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="8">
-        <v>400</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" ht="30">
-      <c r="A17" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="8">
-        <v>5682314978</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L17" s="8">
-        <v>400</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" ht="30">
-      <c r="A18" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" s="8">
-        <v>5682314978</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L18" s="8">
-        <v>400</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="30">
-      <c r="A19" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D19" s="8">
-        <v>5682314978</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L19" s="8">
-        <v>400</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" ht="45">
-      <c r="A20" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="K26" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" s="6">
+        <v>400</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="21">
-        <v>4569213584</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="J20" s="21" t="s">
+      <c r="C27" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L20" s="8">
-        <v>400</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="63" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="21">
-        <v>4569213584</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L21" s="8">
-        <v>400</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="63" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="21">
-        <v>4569213584</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L22" s="8">
-        <v>400</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" s="21">
-        <v>4569213584</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L23" s="8">
-        <v>400</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="21">
-        <v>45692135</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L24" s="8">
-        <v>400</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" s="21">
-        <v>45692135842</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L25" s="8">
-        <v>400</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L26" s="8">
-        <v>400</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="L27" s="8">
-        <v>400</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>167</v>
+      <c r="K27" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L27" s="6">
+        <v>400</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{6BE496A4-D500-40B1-8EE1-64D521A05459}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{7F9AE5C9-A0D5-40BC-AA32-043957240C0F}"/>
-    <hyperlink ref="G8" r:id="rId3" xr:uid="{20E4A621-F053-4CC9-9F7D-9FBB939C5969}"/>
-    <hyperlink ref="G9" r:id="rId4" xr:uid="{FEBE05AF-1533-438E-9933-E7E2ADEF7745}"/>
-    <hyperlink ref="G10" r:id="rId5" xr:uid="{6381803F-73C4-4EC0-A3C3-C272FAE4B330}"/>
-    <hyperlink ref="G11" r:id="rId6" xr:uid="{99905FBC-AA3D-4B1E-81BD-E697DAA0ED56}"/>
-    <hyperlink ref="G12" r:id="rId7" xr:uid="{94567BFF-F7EB-4C57-ACA5-A01D1A9B4EAE}"/>
-    <hyperlink ref="G17" r:id="rId8" xr:uid="{2819C69D-0DE3-4CBF-A58E-C66B7D5471FC}"/>
-    <hyperlink ref="G20" r:id="rId9" xr:uid="{3F0E782A-D235-4B68-8643-18FEB7A4123C}"/>
-    <hyperlink ref="G21" r:id="rId10" xr:uid="{93285090-5449-4791-AAA0-AE55AF679C5D}"/>
-    <hyperlink ref="G23" r:id="rId11" xr:uid="{475CE726-3469-4463-BA49-AFF578289195}"/>
-    <hyperlink ref="G24" r:id="rId12" xr:uid="{282FEBA4-5BAF-4EC0-9B2C-2C6B92536C85}"/>
-    <hyperlink ref="G25" r:id="rId13" xr:uid="{60AEC3BF-4908-4DAC-8808-039E23AF5D70}"/>
-    <hyperlink ref="G26" r:id="rId14" xr:uid="{AF92BE92-3963-4023-BD5C-DB045B3A43A2}"/>
-    <hyperlink ref="G27" r:id="rId15" xr:uid="{37AA0269-F4F4-4C8A-8DB5-4D415C88B50D}"/>
-    <hyperlink ref="G14" r:id="rId16" xr:uid="{5F3A39E6-F1ED-4517-99DF-5AF4351619E4}"/>
-    <hyperlink ref="G15" r:id="rId17" xr:uid="{7146BA4F-5C34-4096-B288-380268B3D75B}"/>
-    <hyperlink ref="G16" r:id="rId18" xr:uid="{3765C790-33BA-4265-907D-837EEC7D2C18}"/>
-    <hyperlink ref="G4" r:id="rId19" xr:uid="{F4B02A5F-DD86-4C5B-A361-99CB61879114}"/>
-    <hyperlink ref="G22" r:id="rId20" xr:uid="{335D2900-6A0D-4A7E-9EDE-60886FEEE82D}"/>
-    <hyperlink ref="G5" r:id="rId21" xr:uid="{B9E0B31C-C06D-4F60-A189-1C2C80A844B6}"/>
-    <hyperlink ref="G18" r:id="rId22" xr:uid="{3D22DDA4-137C-45AA-A8C9-7A094552A47D}"/>
-    <hyperlink ref="G19" r:id="rId23" xr:uid="{3E289640-E79C-4CB1-A911-2858CABBA1C1}"/>
-    <hyperlink ref="G6" r:id="rId24" xr:uid="{DDFF81DC-BFC7-4964-B9DA-74DAF2B5C73F}"/>
-    <hyperlink ref="G7" r:id="rId25" xr:uid="{FE769B79-7097-4743-AD84-220C100DB54A}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/DaveWilliam"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://www.linkedin.com/RyanMarkel"/>
+    <hyperlink ref="G8" r:id="rId2" display="https://www.linkedin.com/RyanMarkel"/>
+    <hyperlink ref="G9" r:id="rId2" display="https://www.linkedin.com/RyanMarkel"/>
+    <hyperlink ref="G10" r:id="rId2" display="https://www.linkedin.com/RyanMarkel"/>
+    <hyperlink ref="G11" r:id="rId2" display="https://www.linkedin.com/RyanMarkel"/>
+    <hyperlink ref="G12" r:id="rId2" display="https://www.linkedin.com/RyanMarkel"/>
+    <hyperlink ref="G17" r:id="rId3" display="https://www.linkedin/RyanMarkel"/>
+    <hyperlink ref="G20" r:id="rId1" display="https://www.linkedin.com/DaveWilliam"/>
+    <hyperlink ref="G21" r:id="rId1" display="https://www.linkedin.com/DaveWilliam"/>
+    <hyperlink ref="G23" r:id="rId1" display="https://www.linkedin.com/DaveWilliam"/>
+    <hyperlink ref="G24" r:id="rId1" display="https://www.linkedin.com/DaveWilliam"/>
+    <hyperlink ref="G25" r:id="rId1" display="https://www.linkedin.com/DaveWilliam"/>
+    <hyperlink ref="G26" r:id="rId1" display="https://www.linkedin.com/DaveWilliam"/>
+    <hyperlink ref="G27" r:id="rId1" display="https://www.linkedin.com/DaveWilliam"/>
+    <hyperlink ref="G14" r:id="rId2" display="https://www.linkedin.com/RyanMarkel"/>
+    <hyperlink ref="G15" r:id="rId2" display="https://www.linkedin.com/RyanMarkel"/>
+    <hyperlink ref="G16" r:id="rId2" display="https://www.linkedin.com/RyanMarkel"/>
+    <hyperlink ref="G4" r:id="rId2" display="https://www.linkedin.com/RyanMarkel"/>
+    <hyperlink ref="G22" r:id="rId1" display="https://www.linkedin.com/DaveWilliam"/>
+    <hyperlink ref="G5" r:id="rId2" display="https://www.linkedin.com/RyanMarkel"/>
+    <hyperlink ref="G18" r:id="rId2" display="https://www.linkedin.com/RyanMarkel"/>
+    <hyperlink ref="G19" r:id="rId2" display="https://www.linkedin.com/RyanMarkel"/>
+    <hyperlink ref="G6" r:id="rId2" display="https://www.linkedin.com/RyanMarkel"/>
+    <hyperlink ref="G7" r:id="rId2" display="https://www.linkedin.com/RyanMarkel"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="A1" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="9">
+        <v>192</v>
+      </c>
+      <c r="C2" s="7">
         <v>200</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>142</v>
+      <c r="D2" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="9">
+        <v>194</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="7">
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="9">
+        <v>197</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="7">
         <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="9">
+        <v>200</v>
+      </c>
+      <c r="C5" s="7">
         <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9">
+        <v>201</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
         <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.1428571428571" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="14" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30">
-      <c r="A2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="16" t="s">
+    <row r="2" ht="30" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
@@ -4330,7 +4940,7 @@
       <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
@@ -4348,94 +4958,96 @@
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="26.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.4285714285714" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="79.150000000000006" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>151</v>
+    <row r="2" ht="79.15" customHeight="1" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
@@ -4447,99 +5059,101 @@
       <c r="J2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>47</v>
       </c>
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="17.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.8571428571429" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="24" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="42.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="34.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="42.4285714285714" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="105">
-      <c r="A2" s="5" t="s">
-        <v>151</v>
+    <row r="2" ht="105" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
@@ -4557,87 +5171,89 @@
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://www.linkedin.com/in/apple bees/" tooltip="https://www.linkedin.com/in/apple bees/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="13" max="13" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="30.2857142857143" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="105">
-      <c r="A2" s="5" t="s">
-        <v>151</v>
+    <row r="2" ht="105" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="4"/>
       <c r="H2" t="s">
         <v>44</v>
       </c>
@@ -4653,11 +5269,12 @@
       <c r="L2">
         <v>400</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/InputData_Users.xlsx
+++ b/src/test/resources/TestData/InputData_Users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="3"/>
+    <workbookView windowWidth="13770" windowHeight="4365" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Authorization" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Text_POST" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:M28"/>
 </workbook>
 </file>
 
@@ -727,11 +728,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -744,6 +751,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -752,7 +767,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,8 +788,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,7 +812,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,29 +843,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,37 +858,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,13 +879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,37 +891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,13 +909,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,61 +1023,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,7 +1041,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,25 +1053,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,8 +1091,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,17 +1121,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,22 +1145,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,10 +1174,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1206,128 +1207,128 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2200,13 +2201,13 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="13" max="13" width="27.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
@@ -2260,12 +2261,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.1428571428571" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.7142857142857" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.4285714285714" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="13.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="18.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="20.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="14.4285714285714" customWidth="1"/>
+    <col min="11" max="11" width="17.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
@@ -3613,7 +3614,7 @@
   <sheetPr/>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestData/InputData_Users.xlsx
+++ b/src/test/resources/TestData/InputData_Users.xlsx
@@ -1,40 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\eclipse-workspace\LMS_API_HACKATHON2122\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338AF6D8-D2E4-4BF7-B378-77FE4C460EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F6EEF860-ED06-400C-BB7E-96532E6EAB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8388" yWindow="480" windowWidth="14640" windowHeight="8964" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Authorization" sheetId="1" r:id="rId1"/>
     <sheet name="InputData_User_GET" sheetId="2" r:id="rId2"/>
     <sheet name="InputData_Users_POST" sheetId="3" r:id="rId3"/>
     <sheet name="InputData_Users_PUT" sheetId="15" r:id="rId4"/>
-    <sheet name="InputData_Users_DELETE" sheetId="4" r:id="rId5"/>
-    <sheet name="Name_POST" sheetId="5" r:id="rId6"/>
-    <sheet name="location_POST" sheetId="6" r:id="rId7"/>
-    <sheet name="time_zone_POST" sheetId="7" r:id="rId8"/>
-    <sheet name="linkedin_url_POST" sheetId="8" r:id="rId9"/>
-    <sheet name="education_ug_POST" sheetId="9" r:id="rId10"/>
-    <sheet name="education_pg_POST" sheetId="10" r:id="rId11"/>
-    <sheet name="visa_status_POST" sheetId="11" r:id="rId12"/>
-    <sheet name="comments_POST" sheetId="12" r:id="rId13"/>
+    <sheet name="comments_POST" sheetId="12" r:id="rId5"/>
+    <sheet name="InputData_Users_DELETE" sheetId="4" r:id="rId6"/>
+    <sheet name="Name_POST" sheetId="5" r:id="rId7"/>
+    <sheet name="location_POST" sheetId="6" r:id="rId8"/>
+    <sheet name="time_zone_POST" sheetId="7" r:id="rId9"/>
+    <sheet name="linkedin_url_POST" sheetId="8" r:id="rId10"/>
+    <sheet name="education_ug_POST" sheetId="9" r:id="rId11"/>
+    <sheet name="education_pg_POST" sheetId="10" r:id="rId12"/>
+    <sheet name="visa_status_POST" sheetId="11" r:id="rId13"/>
     <sheet name="Invalid_Content" sheetId="13" r:id="rId14"/>
     <sheet name="Text_POST" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:E4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="207">
   <si>
     <t>SCENARIO</t>
   </si>
@@ -375,12 +371,6 @@
     <t>POST method to create record with invalid phone number</t>
   </si>
   <si>
-    <t>POST method to create record with valid data</t>
-  </si>
-  <si>
-    <t>https://linkedin.com/in/apple bees/</t>
-  </si>
-  <si>
     <t>Bcom</t>
   </si>
   <si>
@@ -396,9 +386,6 @@
     <t>NZST</t>
   </si>
   <si>
-    <t>GC</t>
-  </si>
-  <si>
     <t>POST method to create record with alphanumeric name</t>
   </si>
   <si>
@@ -456,9 +443,6 @@
     <t>U50</t>
   </si>
   <si>
-    <t>Faile to create-Record already exists</t>
-  </si>
-  <si>
     <t>To delete an existing user id</t>
   </si>
   <si>
@@ -664,6 +648,9 @@
   </si>
   <si>
     <t>Ryan123,Markel</t>
+  </si>
+  <si>
+    <t>POST method to create record with valid data with different time zone</t>
   </si>
 </sst>
 </file>
@@ -1116,11 +1103,11 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1140,7 +1127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="28.8">
       <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
@@ -1151,7 +1138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
+    <row r="3" spans="1:5" ht="28.8">
       <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
@@ -1168,7 +1155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -1185,7 +1172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="28.8">
       <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
@@ -1211,6 +1198,99 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="13" max="13" width="30.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="86.4">
+      <c r="A2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2">
+        <v>400</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -1218,18 +1298,18 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1">
@@ -1271,18 +1351,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="105">
+    <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -1314,7 +1394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -1322,9 +1402,9 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="13" max="13" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="35.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1">
@@ -1366,18 +1446,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="105">
+    <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -1409,7 +1489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -1417,9 +1497,9 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="13" max="13" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="31.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1">
@@ -1461,18 +1541,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="105">
+    <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -1499,102 +1579,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="45">
-      <c r="A2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2">
-        <v>400</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1608,9 +1592,9 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="13" max="13" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="27.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1">
@@ -1635,9 +1619,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="105">
+    <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G2" s="6"/>
       <c r="L2">
@@ -1660,14 +1644,14 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1">
@@ -1711,18 +1695,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="75">
+    <row r="2" spans="1:13" ht="72">
       <c r="A2" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -1731,22 +1715,22 @@
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L2">
         <v>400</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1765,10 +1749,10 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1875,23 +1859,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="53.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="53.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="39.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1">
@@ -1976,7 +1962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="60">
+    <row r="3" spans="1:14" ht="43.2">
       <c r="A3" s="10" t="s">
         <v>49</v>
       </c>
@@ -2011,7 +1997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="60">
+    <row r="4" spans="1:14" ht="43.2">
       <c r="A4" s="10" t="s">
         <v>56</v>
       </c>
@@ -2046,7 +2032,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="60">
+    <row r="5" spans="1:14" ht="43.2">
       <c r="A5" s="10" t="s">
         <v>64</v>
       </c>
@@ -2081,7 +2067,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60">
+    <row r="6" spans="1:14" ht="43.2">
       <c r="A6" s="10" t="s">
         <v>65</v>
       </c>
@@ -2148,13 +2134,10 @@
         <v>47</v>
       </c>
       <c r="L7">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2189,13 +2172,10 @@
         <v>47</v>
       </c>
       <c r="L8">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2230,16 +2210,13 @@
         <v>47</v>
       </c>
       <c r="L9">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="52.15" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="52.2" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>76</v>
       </c>
@@ -2309,16 +2286,13 @@
         <v>85</v>
       </c>
       <c r="L11">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="28.8">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -2356,7 +2330,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30">
+    <row r="13" spans="1:14" ht="28.8">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -2394,7 +2368,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="30">
+    <row r="14" spans="1:14" ht="28.8">
       <c r="A14" s="12" t="s">
         <v>91</v>
       </c>
@@ -2421,10 +2395,10 @@
         <v>47</v>
       </c>
       <c r="L14">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2617,30 +2591,30 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" customFormat="1">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="G20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" t="s">
         <v>114</v>
-      </c>
-      <c r="H20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" t="s">
-        <v>116</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
@@ -2658,62 +2632,53 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" t="s">
-        <v>113</v>
+    <row r="21" spans="1:14" customFormat="1">
+      <c r="A21" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="I21" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="K21" t="s">
         <v>47</v>
       </c>
       <c r="L21">
-        <v>201</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="N21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>40</v>
+        <v>400</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" customFormat="1" ht="43.2">
+      <c r="A22" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>100</v>
@@ -2725,36 +2690,27 @@
         <v>102</v>
       </c>
       <c r="J22" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s">
         <v>47</v>
       </c>
       <c r="L22">
-        <v>201</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="N22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="13" t="s">
-        <v>121</v>
+        <v>400</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" customFormat="1" ht="43.2">
+      <c r="A23" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
+        <v>124</v>
+      </c>
+      <c r="D23">
+        <v>37523454657</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>100</v>
@@ -2766,7 +2722,7 @@
         <v>102</v>
       </c>
       <c r="J23" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="K23" t="s">
         <v>47</v>
@@ -2775,20 +2731,29 @@
         <v>400</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="60">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" customFormat="1">
       <c r="A24" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
         <v>124</v>
       </c>
+      <c r="D24" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>100</v>
       </c>
       <c r="H24" t="s">
@@ -2798,7 +2763,7 @@
         <v>102</v>
       </c>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s">
         <v>47</v>
@@ -2807,170 +2772,94 @@
         <v>400</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="60">
+        <v>129</v>
+      </c>
+      <c r="N24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" customFormat="1">
       <c r="A25" s="8" t="s">
-        <v>126</v>
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25">
-        <v>37523454657</v>
-      </c>
-      <c r="G25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s">
         <v>47</v>
       </c>
       <c r="L25">
-        <v>400</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="30">
-      <c r="A26" s="8" t="s">
-        <v>129</v>
+        <v>201</v>
+      </c>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" customFormat="1">
+      <c r="A26" t="s">
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>100</v>
+      <c r="G26" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s">
         <v>47</v>
       </c>
       <c r="L26">
-        <v>400</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="N26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="30">
-      <c r="A27" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" t="s">
-        <v>137</v>
-      </c>
-      <c r="J27" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27">
-        <v>400</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" t="s">
-        <v>47</v>
-      </c>
-      <c r="L28">
-        <v>400</v>
-      </c>
-      <c r="M28" t="s">
-        <v>140</v>
-      </c>
-      <c r="N28" t="s">
-        <v>69</v>
-      </c>
-    </row>
+    <row r="27" spans="1:14" customFormat="1"/>
+    <row r="28" spans="1:14" customFormat="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" tooltip="https://www.linkedin.com/in/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -2989,15 +2878,13 @@
     <hyperlink ref="G17" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
     <hyperlink ref="G18" r:id="rId15" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
     <hyperlink ref="G19" r:id="rId16" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="G20" r:id="rId17" tooltip="https://linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="G21" r:id="rId18" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="G22" r:id="rId19" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="G23" r:id="rId20" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="G24" r:id="rId21" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="G25" r:id="rId22" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="G26" r:id="rId23" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="G27" r:id="rId24" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="G28" r:id="rId25" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="G20" r:id="rId17" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="G21" r:id="rId18" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="G22" r:id="rId19" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="G23" r:id="rId20" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="G24" r:id="rId21" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="G25" r:id="rId22" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="G26" r:id="rId23" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3007,24 +2894,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="37.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -3070,374 +2957,374 @@
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1">
       <c r="A2" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D2" s="21">
         <v>4569213584</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J2" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L2" s="20">
         <v>201</v>
       </c>
       <c r="M2" s="20"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="30">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A3" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="8">
         <v>5682314978</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>109</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L3" s="8">
         <v>400</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="30">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A4" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D4" s="8">
         <v>5682314978</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>109</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L4" s="8">
         <v>400</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="30">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1">
       <c r="A5" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D5" s="8">
         <v>5682314978</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>109</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L5" s="8">
         <v>400</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="30">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1">
       <c r="A6" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D6" s="8">
         <v>5682314978</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>109</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L6" s="8">
         <v>400</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="30">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1">
       <c r="A7" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D7" s="8">
         <v>5682314978</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>109</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L7" s="8">
         <v>400</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A8" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D8" s="8">
         <v>5682314978</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>75</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L8" s="8">
         <v>400</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A9" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8">
         <v>5682314978</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>54</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L9" s="8">
         <v>400</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A10" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>75</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L10" s="8">
         <v>400</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A11" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D11" s="8">
         <v>5682314978</v>
@@ -3447,210 +3334,204 @@
         <v>59</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>75</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L11" s="8">
         <v>400</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A12" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D12" s="8">
         <v>5682314978</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L12" s="8">
         <v>400</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A13" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D13" s="8">
         <v>5682314978</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>46</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L13" s="8">
-        <v>400</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="45">
+        <v>201</v>
+      </c>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A14" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D14" s="8">
         <v>5682314978</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>46</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L14" s="8">
-        <v>400</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="45">
+        <v>201</v>
+      </c>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A15" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D15" s="8">
         <v>5682314978</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8" t="s">
         <v>46</v>
       </c>
       <c r="K15" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L15" s="8">
+        <v>201</v>
+      </c>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="43.2">
+      <c r="A16" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="L15" s="8">
-        <v>400</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="45">
-      <c r="A16" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="B16" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D16" s="8">
         <v>5682314978</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>46</v>
@@ -3660,458 +3541,456 @@
         <v>400</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" ht="30">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A17" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D17" s="8">
         <v>5682314978</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>54</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L17" s="8">
         <v>400</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" ht="30">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A18" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D18" s="8">
         <v>5682314978</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L18" s="8">
         <v>400</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="30">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A19" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D19" s="8">
         <v>5682314978</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>54</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L19" s="8">
-        <v>400</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" ht="45">
+        <v>201</v>
+      </c>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A20" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D20" s="21">
         <v>4569213584</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L20" s="8">
         <v>400</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="63" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D21" s="21">
         <v>4569213584</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L21" s="8">
         <v>400</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="63" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D22" s="21">
         <v>4569213584</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J22" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L22" s="8">
         <v>400</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D23" s="21">
         <v>4569213584</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L23" s="8">
         <v>400</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D24" s="21">
         <v>45692135</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J24" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L24" s="8">
         <v>400</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D25" s="21">
         <v>45692135842</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L25" s="8">
         <v>400</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L26" s="8">
         <v>400</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J27" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K27" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L27" s="8">
         <v>400</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -4162,6 +4041,102 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="43.2">
+      <c r="A2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2">
+        <v>400</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -4169,7 +4144,7 @@
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -4187,67 +4162,67 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C2" s="9">
         <v>200</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C3" s="9">
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" s="9">
         <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" s="9">
         <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9">
         <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4255,7 +4230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -4263,20 +4238,20 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="14" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1">
@@ -4317,9 +4292,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30">
+    <row r="2" spans="1:13" ht="28.8">
       <c r="A2" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
@@ -4360,7 +4335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -4368,19 +4343,19 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1">
@@ -4422,12 +4397,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="79.150000000000006" customHeight="1">
+    <row r="2" spans="1:13" ht="79.2" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
@@ -4465,7 +4440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -4473,18 +4448,18 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="24" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="42.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="42.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1">
@@ -4526,18 +4501,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="105">
+    <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>43</v>
@@ -4567,97 +4542,4 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="13" max="13" width="30.28515625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="105">
-      <c r="A2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2">
-        <v>400</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestData/InputData_Users.xlsx
+++ b/src/test/resources/TestData/InputData_Users.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F6EEF860-ED06-400C-BB7E-96532E6EAB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C0CC72EB-D61B-4EB4-AE45-8B0DDEFEE51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8388" yWindow="480" windowWidth="14640" windowHeight="8964" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="14736" windowHeight="13224" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Authorization" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <sheet name="Text_POST" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E4"/>
+  <oleSize ref="A25:E30"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="210">
   <si>
     <t>SCENARIO</t>
   </si>
@@ -293,18 +293,12 @@
     <t>POST method to create user record with only first name</t>
   </si>
   <si>
-    <t>Samantha</t>
-  </si>
-  <si>
     <t>Failed to create-missing either first or last names</t>
   </si>
   <si>
     <t>POST method to create user record with only last name</t>
   </si>
   <si>
-    <t>Ben</t>
-  </si>
-  <si>
     <t>POST method to create User Record with blank " linkedin_url, education_ug, education_pg, comments"</t>
   </si>
   <si>
@@ -590,12 +584,6 @@
     <t>4569ab3584</t>
   </si>
   <si>
-    <t>If phone number has special character</t>
-  </si>
-  <si>
-    <t>45692-3584</t>
-  </si>
-  <si>
     <t>Update The data</t>
   </si>
   <si>
@@ -651,6 +639,27 @@
   </si>
   <si>
     <t>POST method to create record with valid data with different time zone</t>
+  </si>
+  <si>
+    <t>Samantha,</t>
+  </si>
+  <si>
+    <t>,Ben</t>
+  </si>
+  <si>
+    <t>POST method to create a record with onlu linkedin.com</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com</t>
+  </si>
+  <si>
+    <t>Failed to create-duplicate records</t>
+  </si>
+  <si>
+    <t>Failed to create-invalida data</t>
+  </si>
+  <si>
+    <t>If phone number is greater than 15 digits</t>
   </si>
 </sst>
 </file>
@@ -1251,16 +1260,16 @@
     </row>
     <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
         <v>147</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -1282,7 +1291,7 @@
         <v>400</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1353,16 +1362,16 @@
     </row>
     <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
         <v>147</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -1383,7 +1392,7 @@
         <v>400</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1448,16 +1457,16 @@
     </row>
     <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
         <v>147</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -1478,7 +1487,7 @@
         <v>400</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1543,16 +1552,16 @@
     </row>
     <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
         <v>147</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -1573,7 +1582,7 @@
         <v>400</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1621,14 +1630,14 @@
     </row>
     <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G2" s="6"/>
       <c r="L2">
         <v>400</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1697,16 +1706,16 @@
     </row>
     <row r="2" spans="1:13" ht="72">
       <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
         <v>147</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -1715,22 +1724,22 @@
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L2">
         <v>400</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1857,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2297,7 +2306,7 @@
         <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="D12">
         <v>6785489391</v>
@@ -2327,15 +2336,15 @@
         <v>400</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="28.8">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c r="D13">
         <v>6785489391</v>
@@ -2365,24 +2374,24 @@
         <v>400</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="28.8">
       <c r="A14" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
         <v>91</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>93</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" t="s">
-        <v>95</v>
       </c>
       <c r="F14" t="s">
         <v>80</v>
@@ -2403,34 +2412,34 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
         <v>97</v>
-      </c>
-      <c r="B15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" t="s">
-        <v>99</v>
       </c>
       <c r="F15" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" t="s">
         <v>100</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>101</v>
-      </c>
-      <c r="I15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" t="s">
-        <v>103</v>
       </c>
       <c r="K15" t="s">
         <v>47</v>
@@ -2444,31 +2453,31 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
         <v>104</v>
       </c>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" t="s">
-        <v>106</v>
-      </c>
       <c r="G16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" t="s">
         <v>100</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>101</v>
-      </c>
-      <c r="I16" t="s">
-        <v>102</v>
-      </c>
-      <c r="J16" t="s">
-        <v>103</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
@@ -2482,31 +2491,31 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K17" t="s">
         <v>47</v>
@@ -2520,28 +2529,28 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" t="s">
         <v>100</v>
       </c>
-      <c r="I18" t="s">
-        <v>102</v>
-      </c>
       <c r="J18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K18" t="s">
         <v>47</v>
@@ -2555,31 +2564,31 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D19">
         <v>1234</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
         <v>59</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" t="s">
         <v>100</v>
       </c>
-      <c r="H19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" t="s">
-        <v>102</v>
-      </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K19" t="s">
         <v>47</v>
@@ -2593,28 +2602,28 @@
     </row>
     <row r="20" spans="1:14" customFormat="1">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
@@ -2634,28 +2643,28 @@
     </row>
     <row r="21" spans="1:14" customFormat="1">
       <c r="A21" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" t="s">
         <v>100</v>
-      </c>
-      <c r="H21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" t="s">
-        <v>102</v>
       </c>
       <c r="J21" t="s">
         <v>72</v>
@@ -2672,25 +2681,25 @@
     </row>
     <row r="22" spans="1:14" customFormat="1" ht="43.2">
       <c r="A22" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" t="s">
         <v>100</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>101</v>
-      </c>
-      <c r="I22" t="s">
-        <v>102</v>
-      </c>
-      <c r="J22" t="s">
-        <v>103</v>
       </c>
       <c r="K22" t="s">
         <v>47</v>
@@ -2704,25 +2713,25 @@
     </row>
     <row r="23" spans="1:14" customFormat="1" ht="43.2">
       <c r="A23" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D23">
         <v>37523454657</v>
       </c>
       <c r="G23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" t="s">
         <v>100</v>
       </c>
-      <c r="H23" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" t="s">
-        <v>102</v>
-      </c>
       <c r="J23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K23" t="s">
         <v>47</v>
@@ -2736,31 +2745,31 @@
     </row>
     <row r="24" spans="1:14" customFormat="1">
       <c r="A24" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" t="s">
         <v>100</v>
-      </c>
-      <c r="H24" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" t="s">
-        <v>102</v>
       </c>
       <c r="J24" t="s">
         <v>75</v>
@@ -2772,7 +2781,7 @@
         <v>400</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N24" t="s">
         <v>69</v>
@@ -2780,31 +2789,31 @@
     </row>
     <row r="25" spans="1:14" customFormat="1">
       <c r="A25" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F25" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J25" t="s">
         <v>75</v>
@@ -2819,10 +2828,10 @@
     </row>
     <row r="26" spans="1:14" customFormat="1">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -2843,7 +2852,7 @@
         <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="J26" t="s">
         <v>46</v>
@@ -2852,14 +2861,92 @@
         <v>47</v>
       </c>
       <c r="L26">
-        <v>201</v>
+        <v>400</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="N26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:14" customFormat="1"/>
-    <row r="28" spans="1:14" customFormat="1"/>
+    <row r="27" spans="1:14" customFormat="1">
+      <c r="A27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27">
+        <v>400</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" customFormat="1">
+      <c r="A28" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="16">
+        <v>666666666666</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28">
+        <v>400</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" customFormat="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" tooltip="https://www.linkedin.com/in/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -2885,6 +2972,8 @@
     <hyperlink ref="G24" r:id="rId21" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
     <hyperlink ref="G25" r:id="rId22" tooltip="https://www.linkedin.com/in/sansacindy" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
     <hyperlink ref="G26" r:id="rId23" tooltip="https://www.linkedin.com/in/apple bees/" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="G27" r:id="rId24" xr:uid="{F6269554-45F8-4312-9E57-625AAA7B3FDF}"/>
+    <hyperlink ref="G28" r:id="rId25" xr:uid="{B01978DE-8493-4E95-82FA-BF0548CD6B54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2894,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2957,37 +3046,37 @@
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1">
       <c r="A2" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2" s="21">
         <v>4569213584</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J2" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L2" s="20">
         <v>201</v>
@@ -2996,335 +3085,335 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A3" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" s="8">
         <v>5682314978</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L3" s="8">
+        <v>400</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="L3" s="8">
-        <v>400</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A4" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D4" s="8">
         <v>5682314978</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="8">
+        <v>400</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="L4" s="8">
-        <v>400</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1">
       <c r="A5" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D5" s="8">
         <v>5682314978</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L5" s="8">
         <v>400</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1">
       <c r="A6" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D6" s="8">
         <v>5682314978</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L6" s="8">
         <v>400</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1">
       <c r="A7" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D7" s="8">
         <v>5682314978</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L7" s="8">
         <v>400</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A8" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="8">
         <v>5682314978</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>75</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L8" s="8">
         <v>400</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A9" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8">
         <v>5682314978</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>54</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L9" s="8">
         <v>400</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A10" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>75</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L10" s="8">
         <v>400</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A11" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D11" s="8">
         <v>5682314978</v>
@@ -3334,97 +3423,97 @@
         <v>59</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>75</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L11" s="8">
         <v>400</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A12" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" s="8">
         <v>5682314978</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L12" s="8">
         <v>400</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A13" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13" s="8">
         <v>5682314978</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>46</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L13" s="8">
         <v>201</v>
@@ -3433,35 +3522,35 @@
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A14" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" s="8">
         <v>5682314978</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>46</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L14" s="8">
         <v>201</v>
@@ -3470,35 +3559,35 @@
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A15" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D15" s="8">
         <v>5682314978</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8" t="s">
         <v>46</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L15" s="8">
         <v>201</v>
@@ -3507,158 +3596,156 @@
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A16" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" s="8">
         <v>5682314978</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>46</v>
       </c>
       <c r="K16" s="21"/>
       <c r="L16" s="8">
-        <v>400</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>161</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A17" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" s="8">
         <v>5682314978</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>54</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L17" s="8">
         <v>400</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A18" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" s="8">
         <v>5682314978</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L18" s="8">
         <v>400</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A19" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" s="8">
         <v>5682314978</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>54</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L19" s="8">
         <v>201</v>
@@ -3667,347 +3754,307 @@
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A20" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D20" s="21">
         <v>4569213584</v>
       </c>
       <c r="E20" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>159</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L20" s="8">
         <v>400</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="63" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D21" s="21">
         <v>4569213584</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L21" s="8">
         <v>400</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="63" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D22" s="21">
         <v>4569213584</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J22" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L22" s="8">
         <v>400</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D23" s="21">
         <v>4569213584</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L23" s="8">
         <v>400</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D24" s="21">
         <v>45692135</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J24" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L24" s="8">
         <v>400</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D25" s="21">
-        <v>45692135842</v>
+        <v>4.56921358421112E+17</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L25" s="8">
         <v>400</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L26" s="8">
         <v>400</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="L27" s="8">
-        <v>400</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-    </row>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" customFormat="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:13" customFormat="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{6BE496A4-D500-40B1-8EE1-64D521A05459}"/>
@@ -4024,17 +4071,16 @@
     <hyperlink ref="G24" r:id="rId12" xr:uid="{282FEBA4-5BAF-4EC0-9B2C-2C6B92536C85}"/>
     <hyperlink ref="G25" r:id="rId13" xr:uid="{60AEC3BF-4908-4DAC-8808-039E23AF5D70}"/>
     <hyperlink ref="G26" r:id="rId14" xr:uid="{AF92BE92-3963-4023-BD5C-DB045B3A43A2}"/>
-    <hyperlink ref="G27" r:id="rId15" xr:uid="{37AA0269-F4F4-4C8A-8DB5-4D415C88B50D}"/>
-    <hyperlink ref="G14" r:id="rId16" xr:uid="{5F3A39E6-F1ED-4517-99DF-5AF4351619E4}"/>
-    <hyperlink ref="G15" r:id="rId17" xr:uid="{7146BA4F-5C34-4096-B288-380268B3D75B}"/>
-    <hyperlink ref="G16" r:id="rId18" xr:uid="{3765C790-33BA-4265-907D-837EEC7D2C18}"/>
-    <hyperlink ref="G4" r:id="rId19" xr:uid="{F4B02A5F-DD86-4C5B-A361-99CB61879114}"/>
-    <hyperlink ref="G22" r:id="rId20" xr:uid="{335D2900-6A0D-4A7E-9EDE-60886FEEE82D}"/>
-    <hyperlink ref="G5" r:id="rId21" xr:uid="{B9E0B31C-C06D-4F60-A189-1C2C80A844B6}"/>
-    <hyperlink ref="G18" r:id="rId22" xr:uid="{3D22DDA4-137C-45AA-A8C9-7A094552A47D}"/>
-    <hyperlink ref="G19" r:id="rId23" xr:uid="{3E289640-E79C-4CB1-A911-2858CABBA1C1}"/>
-    <hyperlink ref="G6" r:id="rId24" xr:uid="{DDFF81DC-BFC7-4964-B9DA-74DAF2B5C73F}"/>
-    <hyperlink ref="G7" r:id="rId25" xr:uid="{FE769B79-7097-4743-AD84-220C100DB54A}"/>
+    <hyperlink ref="G14" r:id="rId15" xr:uid="{5F3A39E6-F1ED-4517-99DF-5AF4351619E4}"/>
+    <hyperlink ref="G15" r:id="rId16" xr:uid="{7146BA4F-5C34-4096-B288-380268B3D75B}"/>
+    <hyperlink ref="G16" r:id="rId17" xr:uid="{3765C790-33BA-4265-907D-837EEC7D2C18}"/>
+    <hyperlink ref="G4" r:id="rId18" xr:uid="{F4B02A5F-DD86-4C5B-A361-99CB61879114}"/>
+    <hyperlink ref="G22" r:id="rId19" xr:uid="{335D2900-6A0D-4A7E-9EDE-60886FEEE82D}"/>
+    <hyperlink ref="G5" r:id="rId20" xr:uid="{B9E0B31C-C06D-4F60-A189-1C2C80A844B6}"/>
+    <hyperlink ref="G18" r:id="rId21" xr:uid="{3D22DDA4-137C-45AA-A8C9-7A094552A47D}"/>
+    <hyperlink ref="G19" r:id="rId22" xr:uid="{3E289640-E79C-4CB1-A911-2858CABBA1C1}"/>
+    <hyperlink ref="G6" r:id="rId23" xr:uid="{DDFF81DC-BFC7-4964-B9DA-74DAF2B5C73F}"/>
+    <hyperlink ref="G7" r:id="rId24" xr:uid="{FE769B79-7097-4743-AD84-220C100DB54A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4095,16 +4141,16 @@
     </row>
     <row r="2" spans="1:13" ht="43.2">
       <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
         <v>147</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -4125,7 +4171,7 @@
         <v>400</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4162,67 +4208,67 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="9">
         <v>200</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="9">
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" s="9">
         <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="9">
         <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9">
         <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4294,7 +4340,7 @@
     </row>
     <row r="2" spans="1:13" ht="28.8">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
@@ -4324,7 +4370,7 @@
         <v>400</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4399,10 +4445,10 @@
     </row>
     <row r="2" spans="1:13" ht="79.2" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
@@ -4429,7 +4475,7 @@
         <v>400</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4503,16 +4549,16 @@
     </row>
     <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
         <v>147</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>43</v>
@@ -4533,7 +4579,7 @@
         <v>400</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/InputData_Users.xlsx
+++ b/src/test/resources/TestData/InputData_Users.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C0CC72EB-D61B-4EB4-AE45-8B0DDEFEE51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DACC385A-F401-41E2-83BF-230A9C105A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="14736" windowHeight="13224" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="14760" windowHeight="13224" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Authorization" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <sheet name="Text_POST" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A25:E30"/>
+  <oleSize ref="A25:F30"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="209">
   <si>
     <t>SCENARIO</t>
   </si>
@@ -411,9 +411,6 @@
   </si>
   <si>
     <t>Santa,Clara</t>
-  </si>
-  <si>
-    <t>Failed to create-invalid data</t>
   </si>
   <si>
     <t>POST method to create a record with multi values in education</t>
@@ -1260,16 +1257,16 @@
     </row>
     <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -1362,16 +1359,16 @@
     </row>
     <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -1457,16 +1454,16 @@
     </row>
     <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -1552,16 +1549,16 @@
     </row>
     <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -1630,7 +1627,7 @@
     </row>
     <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" s="6"/>
       <c r="L2">
@@ -1706,16 +1703,16 @@
     </row>
     <row r="2" spans="1:13" ht="72">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -1724,22 +1721,22 @@
         <v>43</v>
       </c>
       <c r="H2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" t="s">
         <v>149</v>
-      </c>
-      <c r="I2" t="s">
-        <v>150</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L2">
         <v>400</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1868,9 +1865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
@@ -2306,7 +2301,7 @@
         <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D12">
         <v>6785489391</v>
@@ -2344,7 +2339,7 @@
         <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13">
         <v>6785489391</v>
@@ -2602,7 +2597,7 @@
     </row>
     <row r="20" spans="1:14" customFormat="1">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" t="s">
         <v>113</v>
@@ -2778,21 +2773,19 @@
         <v>47</v>
       </c>
       <c r="L24">
-        <v>400</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>127</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M24" s="7"/>
       <c r="N24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:14" customFormat="1">
       <c r="A25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
         <v>128</v>
-      </c>
-      <c r="B25" t="s">
-        <v>129</v>
       </c>
       <c r="C25" t="s">
         <v>122</v>
@@ -2801,7 +2794,7 @@
         <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
         <v>42</v>
@@ -2810,10 +2803,10 @@
         <v>98</v>
       </c>
       <c r="H25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" t="s">
         <v>131</v>
-      </c>
-      <c r="I25" t="s">
-        <v>132</v>
       </c>
       <c r="J25" t="s">
         <v>75</v>
@@ -2828,10 +2821,10 @@
     </row>
     <row r="26" spans="1:14" customFormat="1">
       <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
         <v>133</v>
-      </c>
-      <c r="B26" t="s">
-        <v>134</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -2864,15 +2857,12 @@
         <v>400</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="N26" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:14" customFormat="1">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
@@ -2887,13 +2877,13 @@
         <v>42</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H27" t="s">
         <v>99</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J27" t="s">
         <v>46</v>
@@ -2905,12 +2895,12 @@
         <v>400</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:14" customFormat="1">
       <c r="A28" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -2925,13 +2915,13 @@
         <v>42</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H28" t="s">
         <v>99</v>
       </c>
       <c r="I28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J28" t="s">
         <v>46</v>
@@ -2943,7 +2933,7 @@
         <v>400</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:14" customFormat="1"/>
@@ -2983,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3046,37 +3036,37 @@
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1">
       <c r="A2" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="21">
         <v>4569213584</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H2" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>156</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>157</v>
       </c>
       <c r="J2" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L2" s="20">
         <v>201</v>
@@ -3085,335 +3075,335 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A3" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="D3" s="8">
         <v>5682314978</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L3" s="8">
         <v>400</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A4" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" s="8">
         <v>5682314978</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L4" s="8">
         <v>400</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1">
       <c r="A5" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D5" s="8">
         <v>5682314978</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L5" s="8">
         <v>400</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1">
       <c r="A6" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="D6" s="8">
         <v>5682314978</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L6" s="8">
         <v>400</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1">
       <c r="A7" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" s="8">
         <v>5682314978</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L7" s="8">
         <v>400</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A8" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="D8" s="8">
         <v>5682314978</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>75</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L8" s="8">
         <v>400</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A9" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8">
         <v>5682314978</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>54</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L9" s="8">
         <v>400</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A10" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H10" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>75</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L10" s="8">
         <v>400</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A11" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" s="8">
         <v>5682314978</v>
@@ -3423,97 +3413,97 @@
         <v>59</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>75</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L11" s="8">
         <v>400</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A12" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" s="8">
         <v>5682314978</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H12" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L12" s="8">
         <v>400</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A13" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D13" s="8">
         <v>5682314978</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>46</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L13" s="8">
         <v>201</v>
@@ -3522,35 +3512,35 @@
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A14" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="8">
         <v>5682314978</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>46</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L14" s="8">
         <v>201</v>
@@ -3559,35 +3549,35 @@
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A15" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D15" s="8">
         <v>5682314978</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8" t="s">
         <v>46</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L15" s="8">
         <v>201</v>
@@ -3596,31 +3586,31 @@
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="43.2">
       <c r="A16" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16" s="8">
         <v>5682314978</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H16" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>46</v>
@@ -3633,43 +3623,43 @@
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A17" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="8">
         <v>5682314978</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H17" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>54</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L17" s="8">
         <v>400</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="28.8">
@@ -3677,75 +3667,75 @@
         <v>124</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="8">
         <v>5682314978</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H18" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L18" s="8">
         <v>400</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A19" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="8">
         <v>5682314978</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>80</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H19" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>54</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L19" s="8">
         <v>201</v>
@@ -3754,289 +3744,289 @@
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="28.8">
       <c r="A20" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" s="21">
         <v>4569213584</v>
       </c>
       <c r="E20" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="H20" s="21" t="s">
+      <c r="I20" s="21" t="s">
         <v>156</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>157</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L20" s="8">
         <v>400</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="63" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="21">
         <v>4569213584</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H21" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="I21" s="21" t="s">
-        <v>157</v>
-      </c>
       <c r="J21" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L21" s="8">
         <v>400</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="63" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" s="21">
         <v>4569213584</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H22" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I22" s="21" t="s">
         <v>156</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>157</v>
       </c>
       <c r="J22" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L22" s="8">
         <v>400</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D23" s="21">
         <v>4569213584</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H23" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" s="21" t="s">
         <v>156</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>157</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L23" s="8">
         <v>400</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" s="21">
         <v>45692135</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H24" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I24" s="21" t="s">
         <v>156</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>157</v>
       </c>
       <c r="J24" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L24" s="8">
         <v>400</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="21">
         <v>4.56921358421112E+17</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H25" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I25" s="21" t="s">
         <v>156</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>157</v>
       </c>
       <c r="J25" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L25" s="8">
         <v>400</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>154</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>155</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H26" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" s="21" t="s">
         <v>156</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>157</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>46</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L26" s="8">
         <v>400</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:13" customFormat="1">
@@ -4141,16 +4131,16 @@
     </row>
     <row r="2" spans="1:13" ht="43.2">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
@@ -4208,67 +4198,67 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="9">
         <v>200</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="C3" s="9">
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="C4" s="9">
         <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
         <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>143</v>
       </c>
       <c r="C5" s="9">
         <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9">
         <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4340,7 +4330,7 @@
     </row>
     <row r="2" spans="1:13" ht="28.8">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
@@ -4445,10 +4435,10 @@
     </row>
     <row r="2" spans="1:13" ht="79.2" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
         <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>146</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
@@ -4549,16 +4539,16 @@
     </row>
     <row r="2" spans="1:13" ht="86.4">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>43</v>
